--- a/finetuning/it_datasets/qa_dataset/qa_it_tataouine_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_tataouine_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA103"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,14 +668,72 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Carina coffee located at Carina coffe, route de tataouine, Medenine 4100. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.2333991, 10.4543042.</t>
+          <t>Carina coffee is a cafe located in route de tataouine, Medenine 4100. They offer a wide variety of coffee and other beverages, as well as a selection of pastries and sandwiches. The cafe is open from 7am to 11:30pm every day and is located at coordinates (33.2333991, 10.4543042).</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>What top-rated destination in Tataouine is known for its exceptional coffee, making it a must-visit spot for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Ouled Soltane, a fortified granary with historical significance and stunning architecture.
+Mid-Morning: Visit the Museum of Local Tradition to learn about Tataouine's rich cultural heritage and traditions.
+Midday: Try local cuisine at Pizzeria Lela Meriem, renowned for its delicious pizzas and authentic Tunisian flavors.
+Afternoon: Engage in outdoor activities like hiking or enjoying scenic views at Jabal Zammur, a majestic mountain peak with breathtaking vistas.
+Evening: Immerse yourself in the vibrant nightlife scene at A7la Ingenieriebacterie, a popular discotheque with a lively atmosphere.
+Night: Relax and unwind at Dar essadeg, a highly-rated lodge that offers comfortable accommodations and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -776,12 +839,72 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great cafe, check out Cafe La Palma located at XF34+4X3. This top-rated destination is perfect for cafe lovers and offers a variety of options to choose from. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 75 858 706.</t>
+          <t>Cafe La Palma is located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705) and offers a variety of amenities and services. Cafe La Palma is a cafe that serves a variety of food and drinks and is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with convenient 24/7 hours in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, an ancient fortified granary with historical significance and scenic beauty.
+Mid-Morning: Visit Memoire De La Terre Museum to delve into the rich history and culture of Tataouine.
+Midday: Try local cuisine at Pizzaria La Rosa, known for its authentic Tunisian flavors.
+Afternoon: Enjoy the scenic beauty of Jabal Zammur, a majestic mountain peak offering breathtaking views.
+Evening: Participate in a guided tour of the Tataouine bus station, a major transportation hub with a variety of amenities.
+Night: Relax at A7la Ingenieriebacterie, a highly-rated discotheque open on weekends, and enjoy the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -885,10 +1008,80 @@
           <t>tataouine</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Which remote and desolate Pacific island is known for its towering moai statues, a testament to the ancient civilization that once inhabited its shores?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient Ksar Ouled Soltane, a UNESCO World Heritage Site known for its stunning architecture and historical significance.
+**Mid-Morning:**
+- Visit the Memoire De La Terre Museum to learn about the region's rich history and cultural heritage.
+**Midday:**
+- Try local Tunisian cuisine at Pizzeria Lela Meriem, rated highly for its delicious pizzas.
+**Afternoon:**
+- Engage in outdoor activities like hiking at Jabal Zammur, a majestic mountain peak with challenging trails and breathtaking views.
+**Evening:**
+- Enjoy scenic views at the Tataouine bus station, a transportation hub offering a chance to observe the bustling city life.
+**Night:**
+- Relax with a visit to the luxurious Tataouine bus station, which offers comfortable accommodations and a chance to recharge for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Carina coffee is a cafe located in route de tataouine, Medenine 4100. They offer a wide variety of coffee and other beverages, as well as a selection of pastries and sandwiches. The cafe is open from 7am to 11:30pm every day and is located at coordinates (33.2333991, 10.4543042).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -990,14 +1183,72 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe Hanibal located at XF39+73M Cafe Hanibal, Tataouine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:30-22:00, but closed on []. To get there, use these GPS coordinates: 32.930683188105, 10.44929060184. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hanibal/data=!4m7!3m6!1s0x1254b7a0aad074c7:0xca2d528690f6eeaa!8m2!3d32.9532206!4d10.4676635!16s%2Fg%2F11cs6977kr!19sChIJx3TQqqC3VBIRqu72kIZSLco?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>What top-rated cafe in Tataouine, with GPS coordinates 32.930683188105, 10.44929060184, is perfect for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of Ksar Beni Barka, a preserved historical fortified granary, to immerse yourself in the local history.
+Mid-Morning: Visit the Memoire De La Terre Museum to explore its valuable historical collections and deepen your understanding of Tataouine's past.
+Midday: Indulge in a delightful lunch at Cafe 3S Tataouine, a 4.6-rated café and grill restaurant, serving mouthwatering grilled specialties and local delicacies.
+Afternoon: Enjoy the beautiful scenery at Chenini Tataouine shnny, a captivating troglodyte village, capturing the essence of Tataouine's cultural heritage.
+Evening: As the sun sets, take a leisurely stroll through the central market, offering a vibrant atmosphere and an opportunity to purchase local products and souvenirs.
+Night: Conclude the day with a memorable dinner at Pizzaria La Rosa, known for its authentic Tunisian cuisine and cozy ambiance - a perfect way to end your day in Tataouine.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Siouir, located in Tataouine, Tunisia at the coordinates (32.9484522, 10.4667772), is a highly rated cafe with 4.5 stars out of 2 reviews. While its full range of offerings is not available in the provided information, it is a popular destination for locals and visitors alike. Its exact address is Cafe siouir, CITE MAHRAGENE 225, Tataouine.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1350,72 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Cafe, be sure to check out Cafe Palestine located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:00, but closed on []. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Palestine/data=!4m7!3m6!1s0x1254b75c8ae15a87:0x660086837b900a70!8m2!3d32.928288!4d10.4483166!16s%2Fg%2F12cp66f86!19sChIJh1rhily3VBIRcAqQe4OGAGY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly rated Café Palestine, perfect for café lovers with a 4.0 rating and a variety of café options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ksar Ouled Soltane, a fortified granary with scenic beauty.
+Mid-Morning: Visit the La Grande Mosquée, a serene and architecturally stunning place of worship.
+Midday: Enjoy a delicious Tunisian lunch at Pizzaria La Rosa, known for its authentic flavors and cozy ambiance.
+Afternoon: Engage in outdoor activities at Jabal Zammur, hike its challenging trails, and enjoy breathtaking mountain views.
+Evening: Participate in a lively disco experience at A7la Ingenieriebacterie, a popular nightlife destination.
+Night: Relax with a rejuvenating spa treatment at a local hotel or spa.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1521,72 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Al Maqam located at WFQ2+2Q2 Al Maqam, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Salon de the lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-20:00. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/Al+Maqam/data=!4m7!3m6!1s0x1254b7a0c9099ebf:0x68201e9a9cdb7bdc!8m2!3d32.9375194!4d10.4519!16s%2Fg%2F11j0jfygz8!19sChIJv54JyaC3VBIR3HvbnJoeIGg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 857 567.</t>
+          <t>Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>What highly-rated destination in Tataouine offers a unique experience for Salon de the enthusiasts at its convenient location on Avenue Habib Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane and Ksar Beni Barka
+Mid-Morning: Visiting the Memoire De La Terre Museum
+Midday: Trying local cuisine at Pizzeria Restaurant Dar Dhiafa
+Afternoon: Relaxing with a swim at the Hotel AL RAYAN Tataouine Nouvelle
+Evening: Experiencing cultural immersion at Chenini Tataouine shnny
+Night: Enjoying the nightlife at A7la Ingenieriebacterie</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1692,72 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great place to eat, check out Cafe 3S Tataouine located at WFWH+7CJ Cafe 3S Tataouine, Tataouine. This top-rated destination is perfect for Cafe and Restaurant De Grillades lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on []. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at or call them at 95 072 500.</t>
+          <t>Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe and Restaurant De Grillades destination in Tataouine with GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, a preserved fortified granary that offers an immersive experience of local history and culture.
+Mid-Morning: Enjoy a delightful tea experience at Al Maqam, a tea room renowned for its cozy ambiance and exceptional rating.
+Midday: Savor authentic Tunisian flavors at Pizzaria La Rosa, a popular restaurant known for its delicious cuisine.
+Afternoon: Visit Memoire De La Terre Museum, a well-rated attraction that houses fascinating exhibits on local history and culture.
+Evening: Relax and take in the scenic views at Jabal Zammur, a majestic mountain peak that offers breathtaking vistas and challenging hiking trails.
+Night: Experience Tataouine's nightlife at A7la Ingenieriebacterie, a highly-rated discotheque known for its lively atmosphere and large crowd.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1432,12 +1863,78 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a delightful cup of coffee, visit Patisserie Du Sud Kilani Ounissi on Av. Habib Bourguiba. This top-rated cafe offers a cozy ambiance and a delectable selection of pastries to choose from. With a 4.0 rating, it's a must-visit spot for coffee lovers. It's open from 08:00 to 21:00 during weekdays. To navigate there, use these coordinates: (32.944309666102, 10.453309339046). For more details, visit their website or call them at 53407827.</t>
+          <t>"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you indulge in a delightful cup of coffee with a cozy ambiance and a tempting selection of pastries?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the captivating "Chenini Tataouine shnny," a troglodyte village nestled amidst stunning landscapes.
+**Mid-Morning:**
+* Indulge in the authentic flavors of Tunisian cuisine at "Pizzaria La Rosa," renowned for its delicious offerings.
+**Midday:**
+* Uncover the historical significance of "Ksar Ouled Soltane," a fortified granary that played a role in the filming of Star Wars.
+**Afternoon:**
+* Enjoy the scenic beauty of "Wed El Kamh," a prominent canal with breathtaking surroundings.
+**Evening:**
+* Visit "La Grande Mosquée," a renowned mosque that offers a serene atmosphere for worship and spiritual connection.
+**Night:**
+* Experience the vibrant nightlife at "A7la Ingenieriebacterie," a popular discotheque open late into the night.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1541,10 +2038,80 @@
           <t>tataouine</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>What is the unique feature of the location "nan" that makes it a captivating destination for travelers seeking adventure?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical site of Ksar Ouled Soltane, a fortified granary dating back to the 15th century.
+**Mid-Morning:**
+* Try local cuisine at Pizzaria La Rosa, known for its delicious Tunisian dishes.
+**Midday:**
+* Visit the La Grande Mosquée, a place of worship, and admire its architectural beauty.
+**Afternoon:**
+* Enjoy a hike in Jabal Zammur, a majestic mountain with breathtaking views.
+**Evening:**
+* Relax with a traditional hammam experience at a local spa.
+**Night:**
+* Dine at Dar Essadeg, a highly-rated lodge offering authentic Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1650,14 +2217,78 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great cafe, check out Coffee Shop Agil Energy at WFJ2+J9C. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on for details, call them at 75 860 030.</t>
+          <t>Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly-rated cafe that operates 24/7 and is known for its exceptional cafe options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the UNESCO World Heritage Site of **Ksar Ouled Soltane** and **Ksar Beni Barka**, ancient fortified granaries offering scenic views and insights into the Berber history of the region.
+**Mid-Morning:**
+* Visit the **Musée de Tataouine** to delve into the local culture, history, and art.
+**Midday:**
+* Savor traditional Tunisian cuisine at the highly-rated **Pizza torino**, known for its wide selection of pizzas and authentic ambiance.
+**Afternoon:**
+* Indulge in some retail therapy at the local **souk** or **market**, where you can browse a variety of traditional crafts, textiles, spices, and other souvenirs.
+**Evening:**
+* Enjoy a leisurely stroll through **Chenini Tataouine shnny**, an enchanting troglodyte village perched amidst stunning mountain and desert landscapes.
+**Night:**
+* Dance the night away at **A7la Ingenieriebacterie**, a popular discotheque with a lively atmosphere and a large crowd.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Siouir, located in Tataouine, Tunisia at the coordinates (32.9484522, 10.4667772), is a highly rated cafe with 4.5 stars out of 2 reviews. While its full range of offerings is not available in the provided information, it is a popular destination for locals and visitors alike. Its exact address is Cafe siouir, CITE MAHRAGENE 225, Tataouine.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1759,12 +2390,72 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Tataouine, be sure to visit Coffe Abdallah Thabti, a top-rated Cafe known for its exceptional quality. The address is WCHW+CVV Coffe Abdallah Thabti, Tataouine. With a rating of 5.0 out of 5, you can expect a great experience. Coffe Abdallah Thabti is open 24 hours a day, 7 days a week, so you can drop in whenever you like. To get there, you can use the GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Tataouine that offers exceptional quality and stays open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Ouled Soltane, a UNESCO World Heritage Site, and step into the world of the Berber tribes.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the rich history and culture of Tataouine.
+Midday: Savor the authentic flavors of Tunisian cuisine at Pizzaria La Rosa, a highly-rated restaurant with a cozy ambiance.
+Afternoon: Engage in a guided tour of the Tataouine salt flats, a mesmerizing natural landscape that offers breathtaking views.
+Evening: Enjoy a serene stroll through the scenic Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Night: Experience the vibrant nightlife at A7la Ingenieriebacterie, a popular discotheque known for its lively atmosphere and large crowds.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1870,12 +2561,73 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great cup of coffee, check out Cafe Rogba 93. It's located at WC5F+VX8 Cafe Rogba 93 and it's a top-rated destination for coffee lovers. The cafe serves fresh coffee, pastries, and snacks with a rating of 5.0. It's open during these hours: 05:00-00:00, so you can get your caffeine fix any time of day. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, call the cafe at 26 399 255.</t>
+          <t>Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated coffee shop in Tataouine known for serving fresh coffee and offering a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary, Ksar Ouled Soltane, which was featured in the 'Star Wars' films.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's history and culture.
+Midday: Savor authentic Tunisian cuisine at the highly-rated Pizzaria La Rosa, known for its delicious pizzas and cozy ambiance.
+Afternoon: Embark on a scenic hike to Jabal Zammur, a majestic mountain peak offering breathtaking views and challenging trails.
+Evening: Enjoy a relaxing evening at the local A7la Ingenieriebacterie discotheque, known for its lively atmosphere and popular dance parties.
+Night: Head to mhrjn lHwt, a highly-rated seafood restaurant, and indulge in a delicious seafood dinner while enjoying the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1973,12 +2725,72 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great cafe, check out cafe tour eiffel located at cafe tour eiffel, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-01:00. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/cafe+tour+eiffel/data=!4m7!3m6!1s0x1254b79b7d83ecf9:0x595f0f6d3507eaca!8m2!3d32.9415162!4d10.4604243!16s%2Fg%2F11s8n1nl1v!19sChIJ-eyDfZu3VBIRyuoHNW0PX1k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Tour Eiffel, a top-rated destination with a 4.3 rating, perfect for Cafe lovers in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ksar Beni Barka, a preserved fortified granary that offers a glimpse into the region's rich heritage.
+Mid-Morning: Visit La Grande Mosquee, an iconic place of worship known for its religious significance and architectural beauty. Immerse yourself in its serene atmosphere and admire its intricate details.
+Midday: Indulge in a delightful lunch at Cafe Alhambra, a cozy teahouse with a warm and inviting ambiance. Savor delicious teas and soak in the local culture.
+Afternoon: Embark on a guided tour of Tataouineranch, a charming guest house located in the heart of Tataouine. Discover its comfortable accommodations, warm hospitality, and convenient location close to local attractions.
+Evening: Immerse yourself in the vibrant atmosphere of A7la Ingenieriebacterie, a highly-rated discotheque known for its lively ambiance and large crowds. Dance the night away and enjoy the energetic nightlife scene.
+Night: Unwind and relax at Hotel AL RAYAN Tataouine Nouvelle, a 4.2-rated hotel with comfortable accommodations and amenities such as a swimming pool. Take a refreshing dip or simply relax and soak in the tranquility.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tataouine, Cafe hay riadhi offers a cozy atmosphere for coffee lovers. With a rating of 4.0, this 24/7 cafe is a popular spot for locals and visitors alike. Immerse yourself in the cafe's inviting ambiance and enjoy a refreshing cup of coffee while immersing yourself in the local culture.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2888,72 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for something fun to do, check out Cafe champs elysee located at WFQ2+RWF Cafe champs elysee, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 48.639218378953, 2.430276277356.</t>
+          <t>**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe champs elysee with a 4.7 rating and a variety of categories to choose from in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Ksar Ouled Soltane, a well-preserved fortified granary built in the 15th century.
+Mid-Morning: Visit La Grande Mosquée, a prominent religious landmark in Tataouine, offering a serene atmosphere for worship and spiritual connection.
+Midday: Try local cuisine at Pizzaria La Rosa, a popular restaurant in Tataouine known for its delicious Tunisian dishes.
+Afternoon: Engage in outdoor activities like hiking or rock climbing at Jabal Zammur, a majestic mountain peak that offers breathtaking views and challenging trails.
+Evening: Enjoy scenic views at Wed El Kamh, a prominent canal in Tataouine, ideal for a peaceful stroll or a romantic evening walk.
+Night: Participate in a lively atmosphere and enjoy the nightlife at A7la Ingenieriebacterie, a highly-rated discotheque open on weekends.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2183,12 +3055,79 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe Athina located at WCFP+4VC Cafe Athina, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Cafe+Athina/data=!4m7!3m6!1s0x1254b9fcd3ddd34f:0xebf539225f97f031!8m2!3d32.9228119!4d10.4371449!16s%2Fg%2F11dzdfykk2!19sChIJT9Pd0_y5VBIRMfCXXyI59es?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 888 507.</t>
+          <t>**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe (4.3 stars) with a diverse Cafe selection in Tataouine, as recommended by Cafe enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical site of **Ksar Ouled Soltane**, a fortified granary that offers a glimpse into ancient Berber architecture.
+**Mid-Morning:**
+* Visit the **Chenini Tataouine shnny**, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+**Midday:**
+* Savor local cuisine at **Pizzeria Lela Meriem**, which offers a wide selection of pizzas and is highly rated by locals.
+**Afternoon:**
+* Take a guided tour of the **Memoire De La Terre Museum**, which houses artifacts and exhibits related to the history and culture of Tataouine.
+**Evening:**
+* Participate in the vibrant nightlife at **A7la Ingenieriebacterie**, a popular discotheque with a lively atmosphere.
+**Night:**
+* Relax and unwind at the **Hotel Belmharem**, a 5-star hotel with luxurious amenities and a central location.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2286,12 +3225,72 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Cafe, check out Cafe idriss located at XF5C+5H Cafe idriss, Tataouine. This top-rated destination is perfect for Cafe lovers and has a rating of 4.3. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at .</t>
+          <t>Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe (4.3 stars) in Tataouine with the GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Beni Barka
+Mid-Morning: Visit the serene La Grande Mosquée
+Midday: Enjoy traditional Tunisian cuisine at Pizzaria La Rosa
+Afternoon: Discover the unique troglodyte village of Chenini Tataouine shnny
+Evening: Participate in a lively performance at A7la Ingenieriebacterie
+Night: Relish the beautiful sunset at Jabal Zammur</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2385,14 +3384,72 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe siouir located at Cafe siouir, CITE MAHRAGENE 225, Tataouine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 32.9484522, 10.4667772.</t>
+          <t>Café Siouir, located in Tataouine, Tunisia at the coordinates (32.9484522, 10.4667772), is a highly rated cafe with 4.5 stars out of 2 reviews. While its full range of offerings is not available in the provided information, it is a popular destination for locals and visitors alike. Its exact address is Cafe siouir, CITE MAHRAGENE 225, Tataouine.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with GPS coordinates 32.9484522, 10.4667772, perfect for cafe enthusiasts in Tataouine?</t>
+          <t>Day Plan:
+**Morning:** Explore the historical Ksar Ouled Soltane, a fortified granary with scenic views.
+**Mid-Morning:** Visit the Memoire De La Terre Museum to learn about the region's history and culture.
+**Midday:** Try local Tunisian cuisine at the highly-rated Pizzaria La Rosa.
+**Afternoon:** Enjoy a relaxing swim at the Hotel AL RAYAN Tataouine Nouvelle, which offers a comfortable stay and a swimming pool.
+**Evening:** Embark on a guided tour of Ksar Beni Barka, a preserved fortified granary, to experience the local history and heritage.
+**Night:** Experience the lively nightlife at A7la Ingenieriebacterie, a popular discotheque open from 10 p.m. to 4 a.m. on weekends.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2494,15 +3551,73 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a cozy spot to relax, head to Cafe marrakech located at 1934 02 Mars 1943, Tataouine. 
-This top-rated destination is perfect for cafe lovers and offers a welcoming ambiance. With a rating of 5.0, it's a must-visit spot. 
-It's open 24/7, providing you with a convenient option to enjoy your favorite beverages and bites anytime. To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their website https://lh5.googleusercontent.com/p/AF1QipMnAM3hkY-mA4kj82FrQC7249BkdkY9kL2-guUx=w408-h306-k-no.</t>
+          <t>**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Tataouine that provides a welcoming ambiance and is open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, a well-preserved fortified granary that offers scenic views.
+Mid-Morning: Visit the Memoire De La Terre Museum to learn about the region's history and culture.
+Midday: Try local cuisine at mhrjn lHwt, a highly-rated seafood restaurant.
+Afternoon: Take a guided tour of Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Evening: Enjoy scenic views at Jabal Zammur, a majestic mountain peak that offers breathtaking views and challenging hiking trails.
+Night: Experience cultural immersion at a traditional Tunisian music performance at A7la Ingenieriebacterie, a popular discotheque.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Palma is located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705) and offers a variety of amenities and services. Cafe La Palma is a cafe that serves a variety of food and drinks and is open 24 hours a day.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2588,12 +3703,72 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe located at WFH2+5FP Cafe, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9/data=!4m7!3m6!1s0x1254b7f9b5947573:0x11900c8c8813b67b!8m2!3d32.9279361!4d10.4512953!16s%2Fg%2F11t1048x9n!19sChIJc3WUtfm3VBIRe7YTiIwMkBE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>What top-rated destination in Tataouine is a haven for Cafe enthusiasts with a 5.0 rating, making it a must-visit spot for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Beni Barka, a fortified granary built by the Berbers in the 15th century.
+Mid-Morning: Visit the Memoire De La Terre Museum to learn about the region's rich history and culture.
+Midday: Try local cuisine at mqh~ lbryd Cafe PTT, a highly rated cafe in Tataouine known for its 5-star experience.
+Afternoon: Embark on a guided tour of Ksar Ouled Soltane, a fortified granary and significant filming location for Star Wars.
+Evening: Enjoy scenic views at Jabal Zammur, a majestic mountain peak offering breathtaking vistas and hiking trails.
+Night: Visit the lively A7la Ingenieriebacterie discotheque for an unforgettable nightlife experience.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+At the coordinates (32.92988, 10.4490705), in the city of Tataouine, Tunisia, there is a highly rated cafe called mqh~ lbryd Cafe PTT. Although details are limited, it offers a 5-star experience and is open to anyone looking for a pleasant cafe experience.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2699,12 +3874,78 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe la vague located at WCJX+CH9. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Cafe+la+vague/data=!4m7!3m6!1s0x1254b78b0dd50c71:0x1493c1acd63fa1cf!8m2!3d32.931059!4d10.4489393!16s%2Fg%2F11syt9qw68!19sChIJcQzVDYu3VBIRz6E_1qzBkxQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 423 074.</t>
+          <t>Café la Vague is a café located in Tataouine, Tunisia, at coordinates (32.92988, 10.4490705). It offers a cozy atmosphere and a variety of beverages and snacks. Open from 5 AM to midnight, the café is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What highly-rated cafe in Tataouine offers a top-tier cafe experience at GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the ancient fortified granary, **Ksar Ouled Soltane**, featured in the 'Star Wars' films.
+**Mid-Morning:**
+- Immerse in local history and culture at **Ksar Beni Barka**, a preserved fortified granary.
+**Midday:**
+- Savor authentic Tunisian cuisine at **Pizzaria La Rosa**, known for its delicious dishes.
+**Afternoon:**
+- Enjoy scenic views and challenging hiking trails at **Jabal Zammur**, a majestic mountain peak.
+**Evening:**
+- Engage in cultural immersion at **Memoire De La Terre Museum**, showcasing local history and attractions.
+**Night:**
+- Experience the lively atmosphere of **A7la Ingenieriebacterie**, a popular discotheque in Tataouine.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Carina coffee is a cafe located in route de tataouine, Medenine 4100. They offer a wide variety of coffee and other beverages, as well as a selection of pastries and sandwiches. The cafe is open from 7am to 11:30pm every day and is located at coordinates (33.2333991, 10.4543042).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2806,12 +4047,79 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Cafe, check out Cafe hay riadhi located at XF49+5VF Cafe hay riadhi, C111, Tataouine. This top-rated destination is perfect for Cafe lovers and has a rating of 4.0. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Cafe+hay+riadhi/data=!4m7!3m6!1s0x1254b7c02b657cf3:0x99a3fe52fd0e0e2b!8m2!3d32.955448!4d10.4696569!16s%2Fg%2F11rb__z2v0!19sChIJ83xlK8C3VBIRKw4O_VL-o5k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in Tataouine, Cafe hay riadhi offers a cozy atmosphere for coffee lovers. With a rating of 4.0, this 24/7 cafe is a popular spot for locals and visitors alike. Immerse yourself in the cafe's inviting ambiance and enjoy a refreshing cup of coffee while immersing yourself in the local culture.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>What highly-rated cafe, located at specific coordinates in Tataouine, stays open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient fortified granary of **Ksar Ouled Soltane**, featured in the 'Star Wars' films.
+**Mid-Morning:**
+* Visit the **Memoire De La Terre Museum** to learn about the region's history and culture.
+**Midday:**
+* Try local Tunisian cuisine at the highly-rated **Pizzaria La Rosa**.
+**Afternoon:**
+* Take a guided tour of the **Ksar Beni Barka**, a UNESCO World Heritage site.
+**Evening:**
+* Enjoy the sunset and panoramic views from **Jabal Zammur**, a majestic mountain peak.
+**Night:**
+* Experience the lively nightlife at **A7la Ingenieriebacterie**, a discotheque open on weekends.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2905,12 +4213,72 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great cafe, check out Cafe Oh Champs-Elysees located at WFR5+CXH Cafe Oh Champs-Elysees, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Oh+Champs-%C3%89lys%C3%A9es/data=!4m7!3m6!1s0x1254b77afe5e4929:0xcf513252dc9c5a9a!8m2!3d32.9410648!4d10.4599992!16s%2Fg%2F11l34b72r8!19sChIJKUle_nq3VBIRmlqc3FIyUc8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated cafe in Tataouine known for its exceptional cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, an ancient fortified granary featured in 'Star Wars' movies, and immerse yourself in its historical significance.
+Mid-Morning: Head to Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. Stroll through its labyrinthine streets and visit its ancient mosque.
+Midday: Savor authentic Tunisian flavors at Bonghnim restaurant, known for its delicious ojja.
+Afternoon: Embark on a guided tour of La Grande Mosquée, an iconic mosque renowned for its religious significance and architectural beauty.
+Evening: Enjoy a relaxing evening at Dar essadeg lodge, a highly-rated accommodation with positive reviews.
+Night: Experience the lively atmosphere at A7la Ingenieriebacterie discotheque, open on weekends from 10 p.m. to 4 a.m.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Bonghnim is a highly-rated restaurant located at 32.9292028, 10.448085 in Tataouine, Tunisia, offering a 4.9-star dining experience with a focus on ojja.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3008,14 +4376,72 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mqh~ lbryd Cafe PTT located at WCHX+4GF mqh~ lbryd Cafe PTT, Tataouine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at .</t>
+          <t>At the coordinates (32.92988, 10.4490705), in the city of Tataouine, Tunisia, there is a highly rated cafe called mqh~ lbryd Cafe PTT. Although details are limited, it offers a 5-star experience and is open to anyone looking for a pleasant cafe experience.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>What is the top-rated cafe in Tataouine that offers a must-visit experience for Cafe lovers with GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of **Ksar Ouled Soltane**, a fortified granary featured in "Star Wars" films.
+Mid-Morning: Explore the historical site of **Chenini Tataouine shnny**, an ancient troglodyte village nestled amidst stunning landscapes.
+Midday: Try local Tunisian cuisine at **Pizzaria La Rosa** for an authentic taste experience.
+Afternoon: Enjoy a scenic hike up **Jabal Zammur**, offering breathtaking views and challenging trails for outdoor enthusiasts.
+Evening: Engage in cultural immersion at **Memoire De La Terre Museum**, showcasing the rich local history and heritage.
+Night: Head to **A7la Ingenieriebacterie** for a lively nightlife experience and enjoy the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3121,14 +4547,73 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Auberge Alferdaous located at Auberge Alferdaous, 44 Av. habib bourguiba, Tataouine 3200. 
-This top-rated destination is perfect for Hostel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hostel with a range of categories to choose from in Tataouine, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore Chenini Tataouine shnny, a historical site featuring a troglodyte village nestled amidst a stunning mountain and desert landscape.
+Mid-Morning: Visit Ksar Beni Barka, a preserved fortified granary that offers an immersive experience of local history and culture.
+Midday: Try local cuisine at Restaurant Margoum, known for its delicious Tunisian cuisine.
+Afternoon: Shop for souvenirs at the local market and support the local economy.
+Evening: Take a guided tour of Ksar Ouled Soltane, an ancient fortified granary that was featured in the 'Star Wars' films.
+Night: Visit A7la Ingenieriebacterie, a highly-rated discotheque open on weekends, to enjoy the lively nightlife scene.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Siouir, located in Tataouine, Tunisia at the coordinates (32.9484522, 10.4667772), is a highly rated cafe with 4.5 stars out of 2 reviews. While its full range of offerings is not available in the provided information, it is a popular destination for locals and visitors alike. Its exact address is Cafe siouir, CITE MAHRAGENE 225, Tataouine.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3234,12 +4719,72 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated Lodge offers a range of categories to choose from, including Lodge and Hebergement de groupe. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Tataouine is the top-rated Dar essadeg Lodge, featuring both Lodge and Hebergement de groupe categories, situated?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, a historical fortified granary.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's history and culture.
+Midday: Enjoy local cuisine at Bonghnim, known for its delicious ojja.
+Afternoon: Take a guided tour of Chenini Tataouine shnny, a captivating troglodyte village.
+Evening: Relax with a traditional Hammam experience at Auberge Alferdaous.
+Night: Experience cultural immersion at a traditional music and dance performance at A7la Ingenieriebacterie.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Bonghnim is a highly-rated restaurant located at 32.9292028, 10.448085 in Tataouine, Tunisia, offering a 4.9-star dining experience with a focus on ojja.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3345,12 +4890,72 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge destination, Dar essadeg is a must-visit spot. Located at Dar essadeg, P19, this destination offers a range of Lodge, Hebergement de groupe options to choose from. With a 4.9 rating, it's perfect for Lodge lovers. To get there, use these GPS coordinates: (32.92988, 10.4490705). For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where inTataouine can you find Dar essadeg, a highly rated Lodge destination with a 4.9 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Ouled Soltane, a fortified granary with multiple stories and scenic views.
+Mid-Morning: Visit the nearby Ksar Beni Barka, another preserved granary where you can delve into the region's rich history.
+Midday: Savor traditional Tunisian cuisine at the highly-rated Pizzaria La Rosa, known for its authentic flavors.
+Afternoon: Engage with the vibrant local community at the A7la Ingenieriebacterie discotheque, open from 10 p.m. to 4 a.m. on weekends.
+Evening: Take a romantic stroll through the city's Jardin Public, a tranquil park with lush greenery and stunning views.
+Night: Indulge in stargazing at Jabal Zammur, a majestic mountain peak offering breathtaking night skies.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3452,12 +5057,78 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly rated top-rated Maison d'hotes destination with GPS coordinates 32.92988, 10.4490705?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient fortified granary of **Ksar Ouled Soltane**, an architectural marvel featured in the 'Star Wars' films.
+**Mid-Morning:**
+- Immerse yourself in Tataouine's history and culture at the **Memoire De La Terre Museum**.
+**Midday:**
+- Savor the authentic flavors of Tunisian cuisine at the highly-rated restaurant **Pizzaria La Rosa**.
+**Afternoon:**
+- Embark on a guided tour of the **La Grande Mosquée** to appreciate its religious significance and architectural beauty.
+**Evening:**
+- Experience the vibrant nightlife of Tataouine at the popular discotheque **A7la Ingenieriebacterie**.
+**Night:**
+- Relax and unwind with a traditional Hammam experience at a local **spa**.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3563,14 +5234,72 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Auberge Alferdaous located at 44 Av. habib bourguiba, Tataouine 3200. 
-This top-rated destination is perfect for Hostel lovers and offers a range of Hostel to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find highly-rated hostels in Tataouine, known for being a popular destination among hostel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Ouled Soltane, a fortified granary with a unique blend of history and scenic beauty.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the history and culture of the Tataouine region.
+Midday: Satisfy your taste buds with authentic Tunisian cuisine at Pizzaria La Rosa, known for its delicious flavors and cozy ambiance.
+Afternoon: Immerse yourself in the vibrant Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Evening: Experience the lively atmosphere of A7la Ingenieriebacterie discotheque, where you can dance and enjoy the nightlife scene.
+Night: Relax and unwind at a traditional hammam, experiencing the rejuvenating benefits of a Moroccan steam bath.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3676,12 +5405,72 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated destination is perfect for Lodge lovers and also offers Hebergement de groupe. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find Dar essadeg, a highly-rated Lodge offering group lodging with GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane, a historical fortified granary that offers a glimpse into the rich history and culture of the region.
+Mid-Morning: Trying local cuisine at Pizzerria La Rosa, a popular restaurant known for its delicious Tunisian dishes in a cozy ambiance.
+Midday: Visiting the Memoire De La Terre Museum, a well-rated museum that offers insights into the area's past and cultural heritage.
+Afternoon: Enjoying scenic views at Jabal Zammur, a majestic mountain peak that provides breathtaking vistas and opportunities for hiking and nature exploration.
+Evening: Relaxing with a cup of tea at Al Maqam, a highly-rated tea room that offers a cozy and welcoming atmosphere to unwind and savor the flavors.
+Night: Experiencing the lively nightlife at A7la Ingenieriebacterie, a popular discotheque that attracts a large crowd for dancing and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3787,12 +5576,73 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a cozy stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated destination is perfect for Lodge lovers and offers a range of Hebergement de groupe to choose from. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Dar+essadeg/data=!4m10!3m9!1s0x1254b704eeef4b37:0xf85bbc7d3a852578!5m2!4m1!1i2!8m2!3d32.9251725!4d10.4409536!16s%2Fg%2F11j0r4k5ky!19sChIJN0vv7gS3VBIReCWFOn28W_g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 284 185.</t>
+          <t>Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>What is the top-rated Lodge destination offering Hebergement de groupe in Tataouine, with GPS coordinates 32.92988, 10.4490705, known for its cozy atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane
+Mid-Morning: Visit Memoire De La Terre Museum
+Midday: Trying local cuisine at Pizzaria La Rosa
+Afternoon: Enjoying scenic views at Jabal Zammur
+Evening: Participating in a discotheque at A7la Ingenieriebacterie
+Night: Relaxing with a stay at Auberge Alferdaous</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3898,14 +5748,73 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a place to stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. 
-This top-rated destination is perfect for travelers and offers a range of Lodge and Hebergement de groupe accommodations to choose from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where is Dar essadeg, a top-rated destination in Tataouine offering Lodge and Hebergement de groupe accommodation options, with a rating of 4.9?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, a preserved fortified granary offering a glimpse into local history and culture.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's rich heritage and gain insights into its past.
+Midday: Savory the authentic flavors of Tataouine's cuisine at Pizzaria La Rosa, known for its delicious Tunisian dishes.
+Afternoon: Embark on an adventurous hike to the majestic Jabal Zammur, taking in breathtaking views from its towering peak.
+Evening: Witness the vibrant atmosphere of A7la Ingenieriebacterie, a popular discotheque, and dance the night away.
+Night: Relax and rejuvenate with a therapeutic massage at a local spa, easing away the day's exertions.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4011,14 +5920,73 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated hostel, check out Auberge Alferdaous located at 44 Av. habib bourguiba. 
-This popular destination is perfect for hostel lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where is the must-visit hostel in Tataouine for hostel enthusiasts, with a rating of 4.3 and precise GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: **Explore Chenini,** a preserved troglodyte village in southeastern Tunisia
+Mid-Morning: Take a guided tour of **Ksar Ouled Soltane,** a UNESCO World Heritage Site and a key location in the Star Wars movies.
+Midday: **Try local cuisine at Mhrjn lHwt,** a highly-rated seafood restaurant in Tataouine.
+Afternoon: **Visit Memoire De La Terre Museum,** learn about the history and culture of Tataouine.
+Evening: **Relax at Il Maestro Pizza,** a pizzeria in Tataouine with a 5.0 out of 5 rating.
+Night: **Enjoy scenic views at Jabal Zammur,** a majestic mountain peak located in the Tataouine area.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Vague is a café located in Tataouine, Tunisia, at coordinates (32.92988, 10.4490705). It offers a cozy atmosphere and a variety of beverages and snacks. Open from 5 AM to midnight, the café is a popular spot for locals and tourists alike.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4124,14 +6092,78 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Hotel AL RAYAN Tataouine Nouvelle located at Hotel AL RAYAN Tataouine Nouvelle, Tataouine 3262. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 32.8673957, 10.8605671. For more details, visit their website at http://hotelalrayan.tn/ or call them at 75 870 097.</t>
+          <t>Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with various categories in Tataouine, offering a comfortable stay and located at a specific GPS location?</t>
+          <t>Day Plan:
+Morning:
+Exploring the Ksar Beni Barka, a UNESCO World Heritage site, to delve into the region's rich history and architectural wonders.
+Mid-Morning:
+Trying local cuisine at Pizzaria La Rosa, a popular restaurant known for its delicious Tunisian dishes.
+Midday:
+Visiting the La Grande Mosquée, a prominent religious landmark, to immerse in the serene atmosphere and admire its beautiful architecture.
+Afternoon:
+Enjoying a scenic hike at Jabal Zammur, a majestic mountain peak with breathtaking views, offering opportunities for adventure and nature appreciation.
+Evening:
+Participating in a guided tour of Ksar Ouled Soltane, a fortified granary with multiple stories and courtyards, to uncover its significance in local history and its role in the filming of 'Star Wars.'
+Night:
+Relaxing with a traditional hammam experience at a local spa or hotel, indulging in the rejuvenating and culturally immersive practice.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4233,12 +6265,78 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a pleasant stay, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>For a memorable stay in Tataouine, what top-rated destination offers a variety of Maison d'hotes options with its precise location and website?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Ksar Ouled Soltane, a fortified granary that offers insights into local history and culture.
+**Mid-Morning:**
+* Try local cuisine at Pizzaria La Rosa, known for its authentic Tunisian flavors and cozy ambiance.
+**Midday:**
+* Visit the Memoire De La Terre Museum to learn about the region's rich cultural heritage.
+**Afternoon:**
+* Enjoy scenic views from Jabal Zammur, a majestic mountain peak with challenging hiking trails.
+**Evening:**
+* Participate in an evening event at A7la Ingenieriebacterie, a popular discotheque.
+**Night:**
+* Relax with a soothing massage at Hotel Belmharem, a 5-star hotel known for its luxurious amenities and serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4344,16 +6442,73 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Auberge Alferdaous located at Auberge Alferdaous, 44 Av. habib bourguiba, Tataouine 3200. 
-This top-rated destination is perfect for Hostel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. 
-For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated hostel in Tataouine with a comfortable ambiance and a range of room categories?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, a historical fortified granary built in the 15th century by the Berbers. Marvel at its multiple stories and two courtyards.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the history and culture of Tataouine. Engage with the exhibits and artifacts to gain a deeper understanding of the region.
+Midday: Indulge in authentic Tunisian cuisine at Pizzaria La Rosa. Savor the flavors of traditional dishes and enjoy the cozy ambiance of this popular restaurant.
+Afternoon: Embark on a guided tour of the ancient troglodyte village of Chenini Tataouine shnny. Wander through its labyrinthine streets, explore the ancient mosque, and immerse yourself in the rich history of this enchanting destination.
+Evening: Ascend Jabal Zammur, a majestic mountain peak with breathtaking views. Hike along challenging trails and revel in the panoramic vistas from the summit.
+Night: Experience the vibrant nightlife at A7la Ingenieriebacterie, a highly-rated discotheque. Dance the night away in this lively atmosphere and soak up the energy of the local crowd.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4455,12 +6610,72 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated Maison d'hotes is perfect for Maison d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/ or call them at (No phone number provided).</t>
+          <t>Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Tataouine can one find a highly-rated Maison d'hotes offering a selection of Chambre d'hotes, perfect for those seeking a unique lodging experience?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane, an ancient fortified granary with historical significance.
+Mid-Morning: Taking a guided tour of Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Midday: Trying local cuisine at Pizzaria La Rosa, known for its delicious Tunisian cuisine.
+Afternoon: Enjoying scenic views at Jabal Zammur, a majestic mountain peak with breathtaking views and challenging hiking trails.
+Evening: Participating in A7la Ingenieriebacterie, a highly-rated discotheque known for its lively atmosphere.
+Night: Relaxing with a movie at Cinema le liberte.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4566,13 +6781,72 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This must-visit spot is perfect for Lodge lovers and offers a range of categories to choose from, including Hebergement de groupe. With a rating of 4.9, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 97 284 185.</t>
+          <t>Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where is a 4.9-rated lodge located in Tataouine that offers "Hebergement de groupe" accommodations?</t>
+          <t>Day Plan:
+Morning: Explore the breathtaking ancient fortified granary, **Ksar Ouled Soltane**, immersing yourself in its historical significance and scenic beauty.
+Mid-Morning: Tantalize your taste buds with an authentic Tunisian breakfast at the renowned **Pizzaria La Rosa**, savoring the flavors of local cuisine.
+Midday: Discover the rich history and culture of Tataouine at **Ksar Beni Barka**, a preserved fortified granary that offers an immersive experience.
+Afternoon: Embark on a guided tour of the **Memoire De La Terre Museum**, delving into the fascinating past of the region through its captivating exhibits.
+Evening: Indulge in a delectable dinner at the highly-rated restaurant, **Aroma Express**, enjoying a culinary masterpiece with a tranquil atmosphere.
+Night: Experience the vibrant nightlife at **A7la Ingenieriebacterie**, a popular discotheque where you can dance the night away and soak in the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4678,12 +6952,73 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. With a rating of 4.9, it's a must-visit spot for Lodge lovers. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Which top-rated Lodge with a 4.9 rating is situated in Tataouine?</t>
+          <t>Day Plan:
+Morning: Start your day by Exploring Chenini Tataouine shnny, a captivating historical site featuring a troglodyte village nestled amidst stunning mountain and desert landscapes. Its ancient mosque and labyrinthine streets offer a glimpse into the rich history of the region.
+Mid-Morning: Immerse yourself in the flavors of Tataouine by Trying local cuisine at Pizzaria La Rosa. Known for its delicious Tunisian dishes, this restaurant offers a cozy ambiance and a varied menu.
+Midday: Head to the heart of Tataouine and Visit La Grande Mosquée, an iconic place of worship renowned for its religious significance and architectural beauty. Its serene atmosphere provides a sanctuary for spiritual contemplation.
+Afternoon: Escape the hustle and bustle of the city with a scenic journey along Wed El Kamh, a prominent canal with breathtaking views. Enjoy a leisurely walk or bike ride along its banks, soaking in the tranquility of the natural surroundings.
+Evening: Indulge in an enchanting cultural experience by Participating in a traditional henna painting session at CASAPAINT, a highly-rated painting company. Learn about the art of henna and create your own unique designs, immersing yourself in the local traditions.
+Night: End the day with an unforgettable dining experience at Restaurant universitaire, renowned for its authentic Tunisian cuisine. Enjoy delectable dishes while savoring the vibrant ambiance of this popular restaurant.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4785,14 +7120,72 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in tataouine, Tataouineranch is a recommended Maison d'hotes located at WFW9+737 Tataouineranch, Tataouine 3234. 
-This top-rated destination has a rating of 5.0.
-For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/ or call them at their provided phone number.</t>
+          <t>Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a top-rated Maison d'hotes with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary, Ksar Ouled Soltane, to learn about the region's history.
+Mid-Morning: Try local cuisine at the highly-rated "mhrjn lHwt" seafood restaurant for a delightful culinary experience.
+Midday: Visit the Tataouine bus station to inquire about transportation options for onward travel or local excursions.
+Afternoon: Immerse yourself in the rich history and culture of the region at the Ksar Beni Barka preserved fortified granary.
+Evening: Engage in outdoor activities like hiking or mountain climbing at Jabal Zammur, enjoying the breathtaking views and challenging trails.
+Night: Relax and unwind at the A7la Ingenieriebacterie discotheque, a popular nightlife destination with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Vague is a café located in Tataouine, Tunisia, at coordinates (32.92988, 10.4490705). It offers a cozy atmosphere and a variety of beverages and snacks. Open from 5 AM to midnight, the café is a popular spot for locals and tourists alike.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4898,13 +7291,72 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a highly-rated Hostel, check out Auberge Alferdaous located at Auberge Alferdaous, 44 Av. habib bourguiba, Tataouine 3200. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hostel with a rating of 4.3 in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the fortified granary Ksar Ouled Soltane, a historical landmark featured in the 'Star Wars' films.
+Mid-Morning: Immerse in the local culture by visiting the Memoire De La Terre Museum, showcasing the region's heritage.
+Midday: Savory the traditional Tunisian cuisine at a highly-rated restaurant, Pizzaria La Rosa, known for its authentic flavors.
+Afternoon: Enjoy the picturesque views of Jabal Zammur, a majestic mountain peak offering breathtaking panoramas and hiking trails.
+Evening: Relax and rejuvenate at a local spa or hotel, indulging in a revitalizing massage or spa treatment.
+Night: Experience the vibrant nightlife at A7la Ingenieriebacterie, a popular discotheque, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tataouine, Cafe hay riadhi offers a cozy atmosphere for coffee lovers. With a rating of 4.0, this 24/7 cafe is a popular spot for locals and visitors alike. Immerse yourself in the cafe's inviting ambiance and enjoy a refreshing cup of coffee while immersing yourself in the local culture.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5010,15 +7462,72 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. 
-This destination offers a range of categories to choose from, including Lodge and Hebergement de groupe. 
-With a rating of 4.9, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Dar essadeg Lodge, known for its top-notch accommodations, conveniently located in Tataouine?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane
+Mid-Morning: Visiting La Grande Mosquée
+Midday: Trying local cuisine at Restaurant Margoum
+Afternoon: Enjoying scenic views at Jabal Zammur
+Evening: Participating in the event/activity at A7la Ingenieriebacterie
+Night: Relaxing with a traditional bath at a spa/hammam</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Palma is located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705) and offers a variety of amenities and services. Cafe La Palma is a cafe that serves a variety of food and drinks and is open 24 hours a day.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5120,12 +7629,74 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a charming place to stay, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and also offers Chambre d'hotes. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/</t>
+          <t>Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly-rated accommodation featuring both Maison d'hotes and Chambre d'hotes amenities?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, an ancient fortified granary with historical significance and scenic beauty.
+Mid-Morning: Visit the Memoire De La Terre Museum, offering a glimpse into the region's fascinating history.
+Midday: Enjoy a leisurely lunch at Pizzaria La Rosa, known for its authentic Tunisian cuisine and charming ambiance.
+Afternoon: Embark on a hike up Jabal Zammur, a majestic mountain peak with breathtaking views and exhilarating trails.
+Evening: Catch a movie at Cinema Mehari, the city's main cinema, or head to A7la Ingenieriebacterie for a lively discotheque experience.
+Night: Relax and unwind at Dar essadeg, a cozy lodge with a warm and friendly atmosphere, and enjoy its comfortable amenities.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5227,12 +7798,72 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Maison d'hotes, check out Tataouineranch located at WFW9+737 Tataouineranch. This destination has 2 reviews and a 5.0 rating, making it a must-visit spot. It offers a range of categories including Maison d'hotes and Chambre d'hotes. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where is the highly acclaimed Tataouineranch Maison d'hotes located, offering exceptional accommodation and a 5.0 rating in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Ksar Beni Barka.
+Mid-Morning: Try local cuisine at Restaurant Margoum, known for its authentic Tunisian flavors.
+Midday: Immerse yourself in the captivating troglodyte village of Chenini Tataouine shnny, nestled amidst stunning mountain and desert landscapes.
+Afternoon: Enjoy scenic views at Jabal Zammur, a majestic mountain peak offering breathtaking vistas and challenging hiking trails.
+Evening: Experience cultural immersion at the Memoire De La Terre Museum, showcasing the region's rich history.
+Night: Relax with a peaceful stay at Auberge Alferdaous, a cozy, family-run hostel in the heart of Tataouine.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5338,12 +7969,72 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Auberge Alferdaous is located at 44 Av. habib bourguiba in Tataouine. It's a top-rated hostel with a 4.3 rating, making it a must-visit spot for those looking for a comfortable and affordable stay. With its convenient location in the city center, Auberge Alferdaous offers easy access to local attractions and amenities. To contact the hostel, you can call them at 90 031 690 or visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ for more information and reservations.</t>
+          <t>Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated hostel with a perfect city-center location in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Ouled Soltane (Fortified Granary), a UNESCO World Heritage site.
+Mid-Morning: Visit the La Grande Mosquée, a beautiful place of worship with stunning architecture and religious significance.
+Midday: Enjoy a delicious lunch at Pizzaria La Rosa, a popular restaurant known for its authentic Tunisian cuisine.
+Afternoon: Take a guided tour of Chenini Tataouine shnny, an enthralling troglodyte village nestled amidst a breathtaking mountain and desert landscape.
+Evening: Head to A7la Ingenieriebacterie, a lively discotheque open on weekends, to experience the vibrant nightlife of Tataouine.
+Night: Relax with a delightful dinner at the highly-rated "Restaurant universitaire," known for its excellent dining services.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5449,12 +8140,72 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a place to stay, check out Hotel AL RAYAN Tataouine Nouvelle located at Hotel AL RAYAN Tataouine Nouvelle, Tataouine 3262. This top-rated hotel is perfect for those who love Hotel and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 32.8673957, 10.8605671. For more details, visit their website at http://hotelalrayan.tn/ or call them at 75 870 097.</t>
+          <t>The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated hotel offering Hotel categories in Tataouine, as recommended by its 4.2 rating?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Ksar Ouled Soltane, a fortified granary with a fascinating history dating back to the 15th century.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the rich cultural heritage of Tataouine and gain insights into its captivating past.
+Midday: Indulge in a delightful lunch at Dar essadeg, a highly-rated lodge renowned for its exceptional cuisine and warm hospitality.
+Afternoon: Discover the mesmerizing Fes Festival, a vibrant and colorful celebration showcasing the unique traditions and folklore of Tataouine.
+Evening: Relax and rejuvenate with a therapeutic spa treatment at the Auberge Alferdaous, renowned for its tranquil ambiance and expert services.
+Night: Witness the captivating performance of a traditional Tunisian dance group at A7la Ingenieriebacterie, a lively discotheque known for its vibrant atmosphere and energetic beats.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5556,12 +8307,79 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Maison d'hotes, check out Dar ettawfik located at Rue Arabie Saoudite, Tataouine 3234. This highly-rated destination offers guests a range of comfortable accommodations to choose from, perfect for vacationers and business travelers alike. With a rating of 5.0 based on 12 reviews, it's a must-visit spot in tataouine. To get there, use these GPS coordinates: -38.6357767, 143.8878338. For more details, visit the website at https://www.google.com/maps/place/Dar+ettawfik/data=!4m10!3m9!1s0x1254b7a25d09c9a9:0x7bb899db63c22ae6!5m2!4m1!1i2!8m2!3d32.9449748!4d10.4673285!16s%2Fg%2F11sd8w245h!19sChIJqckJXaK3VBIR5irCY9uZuHs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 777 216.</t>
+          <t>Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Maison d'hotes offering comfortable accommodations with a perfect rating of 5.0 in Tataouine, Tunisia?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the ancient Ksar Ouled Soltane, a fortified granary from the 15th century that was featured in the 'Star Wars' films.
+**Mid-Morning:**
+- Take a guided tour of the Memoire De La Terre Museum, showcasing the region's rich history and culture.
+**Midday:**
+- Savor authentic Tunisian cuisine at Pizzaria La Rosa, renowned for its delectable flavors and cozy ambiance.
+**Afternoon:**
+- Immerse yourself in nature with a scenic hike up Jabal Zammur, offering breathtaking views and challenging trails for outdoor enthusiasts.
+**Evening:**
+- Relax and unwind at a traditional Hammam, indulging in a rejuvenating massage and steam bath experience.
+**Night:**
+- Experience Tataouine's vibrant nightlife at A7la Ingenieriebacterie, a popular discotheque with an energetic atmosphere and lively crowd.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5667,15 +8485,72 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. 
-This destination is perfect for Lodge and Hebergement de groupe lovers with a rating of 4.9. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Lodge with GPS coordinates 32.92988, 10.4490705 in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Ksar Ouled Soltane, a well-preserved fortified granary showcasing local history and culture.
+Mid-Morning: Visit the scenic mountain peak of Jabal Zammur, offering breathtaking views and challenging hiking trails for outdoor enthusiasts.
+Midday: Try local cuisine at Pizzaria La Rosa, a popular restaurant known for its delicious Tunisian flavors in a cozy ambiance.
+Afternoon: Engage in outdoor activities like swimming or sunbathing at the nearby beach or park, enjoying the beautiful weather and coastal scenery.
+Evening: Take a guided tour of the La Grande Mosquée, a renowned mosque in Tataouine known for its beautiful architecture and serene ambiance.
+Night: Enjoy scenic views at Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5777,12 +8652,72 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/ or call them at .</t>
+          <t>Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Tataouineranch located, which offers various types of accommodations for Maison d'hotes enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the awe-inspiring Ksar Ouled Soltane, a fortified granary that showcases the architectural ingenuity of the Berbers.
+Mid-Morning: Immerse yourself in the local culture at the Memoire De La Terre Museum, where you can delve into the rich history and traditions of Tataouine.
+Midday: Delight your taste buds with an authentic Tunisian lunch at Pizzaria La Rosa, renowned for its flavorful cuisine.
+Afternoon: Visit the Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning landscape, where you can explore its ancient mosque and labyrinthine streets.
+Evening: Enjoy a scenic stroll along the picturesque Wed El Kamh canal, admiring the serene atmosphere and taking in the beauty of the surroundings.
+Night: Experience the vibrant nightlife at A7la Ingenieriebacterie, a popular discotheque where you can dance the night away and soak up the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5888,14 +8823,72 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Hotel Belmharem located at Hotel Belmharem, Tataouine. 
-This top-rated destination is perfect for Hotel lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100077652843936%26mibextid%3DZbWKwL or call them at 75 860 104.</t>
+          <t>Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>If you're seeking a highly rated and comfortable accommodation in Tataouine, what hotel should you consider visiting that boasts a 5.0 rating and offers a top-notch experience for hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Beni Barka, a fortified granary providing a glimpse into Tataouine's rich past.
+Mid-Morning: Indulge in local flavors at Pizzaria La Rosa, savoring the authentic Tunisian cuisine and warm ambiance.
+Midday: Visit the Musée de la Mémoire De La Terre, immersing yourself in the region's cultural heritage and historical significance.
+Afternoon: Escape to Jabal Zammur, where you can embark on a scenic hike amidst majestic mountain landscapes.
+Evening: Participate in a lively discotheque experience at A7la Ingenieriebacterie, dancing the night away and immersing yourself in the local nightlife.
+Night: Relax at the Auberge Alferdaous, enjoying the cozy ambiance and affordable accommodations, perfect for unwinding after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5997,12 +8990,72 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/</t>
+          <t>Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Maison d'hotes destination near Tataouine with a 5.0 rating that offers a range of accommodations, perfect for those interested in Maison d'hotes and Chambre d'hotes?</t>
+          <t>Day Plan:
+Morning: Explore **Ksar Ouled Soltane**, an ancient fortified granary that was featured in the 'Star Wars' films.
+Mid-Morning: Try local cuisine at **Pizzaria La Rosa**, a popular restaurant known for its delicious Tunisian flavors.
+Midday: Visit the **Memoire De La Terre Museum** to learn about the history and culture of Tataouine.
+Afternoon: Enjoy a guided tour of **Chenini Tataouine shnny**, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Evening: Relax with a traditional Tunisian massage at a local spa.
+Night: Experience cultural immersion at **La Grande Mosquée**, a renowned mosque known for its beautiful architecture and serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6108,12 +9161,78 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Hostel, check out Auberge Alferdaous located at 44 Av. habib bourguiba, Tataouine 3200. With a rating of 4.3, it offers a great experience and has rave reviews for its convenient location in the city center. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>If you're seeking a highly rated hostel with an exceptional location in Tataouine city center, what is the name of the establishment with a 4.3 rating and rave reviews?</t>
+          <t>Day Plan:
+**Morning:**
+- Take a guided tour of Ksar Ouled Soltane, the ancient fortified granary featured in the 'Star Wars' films.
+**Mid-Morning:**
+- Explore the labyrinthine streets and ancient mosque of Chenini, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+**Midday:**
+- Savor the delicious local cuisine at Pizzaria La Rosa, known for its authentic Tunisian flavors.
+**Afternoon:**
+- Engage in outdoor activities like hiking or mountain climbing at Jabal Zammur, a majestic mountain peak offering breathtaking views.
+**Evening:**
+- Immerse yourself in the local culture at La Grande Mosquée, a stunning mosque renowned for its religious significance and architectural beauty.
+**Night:**
+- Experience the lively nightlife at A7la Ingenieriebacterie, a highly-rated discotheque with a large crowd and a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6219,12 +9338,72 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated Lodge is perfect for solo travelers and couples and offers a range of facilities to choose from. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated lodge ideal for couples and solo travelers, with a 4.9 rating and a convenient location in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, a preserved fortified granary that offers an immersive experience of local history and culture.
+Mid-Morning: Visit Memoire De La Terre Museum to delve into the rich history and heritage of Tataouine.
+Midday: Try local cuisine at Patisserie Du Sud Kilani Ounissi, renowned for its delectable pastries and sweet treats.
+Afternoon: Engage in outdoor activities like hiking at Jabal Zammur, a majestic mountain peak offering breathtaking views and challenging trails.
+Evening: Participate in a cultural immersion at Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Night: Experience the lively nightlife at A7la Ingenieriebacterie, a highly-rated discotheque known for its energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Siouir, located in Tataouine, Tunisia at the coordinates (32.9484522, 10.4667772), is a highly rated cafe with 4.5 stars out of 2 reviews. While its full range of offerings is not available in the provided information, it is a popular destination for locals and visitors alike. Its exact address is Cafe siouir, CITE MAHRAGENE 225, Tataouine.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6330,14 +9509,72 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in tataouine, check out Auberge Alferdaous located at 44 Av. habib bourguiba. 
-This top-rated destination is perfect for Hostel lovers and offers a range of Hostel to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>What is the top-rated hostel in Tataouine that offers a range of options for accommodation and can be reached using the GPS coordinates 32.944309666102, 10.453309339046?</t>
+          <t>Day Plan:
+Morning: Explore Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Mid-Morning: Visit La Grande Mosquée, a renowned mosque known for its beautiful architecture and serene ambiance.
+Midday: Try local cuisine at Pizzeria La Rosa, a popular restaurant in Tataouine known for its delicious Tunisian cuisine.
+Afternoon: Enjoy panoramic views of the city from Jabal Zammur, a majestic mountain peak located in the Tataouine area that offers outdoor enthusiasts challenging hiking trails.
+Evening: Participate in a lively nightlife experience at A7la Ingenieriebacterie, a highly-rated discotheque with energetic crowds and entertainment options.
+Night: Relax and unwind at IL Maestro, a highly rated pizzeria that offers a cozy ambiance and delightful menu, open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6439,12 +9676,72 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Tataouineranch located at WFW9+737 Tataouineranch. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from, including Chambre d'hotes. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>What top-rated Maison d'hotes with a 5.0 rating can you find in Tataouine, offering various category choices, and is known for its excellent accommodations?</t>
+          <t>Day Plan:
+Morning: Exploring Chenini Tataouine shnny, a captivating historical site featuring a troglodyte village nestled amidst a stunning mountain and desert landscape.
+Mid-Morning: Visiting Ksar Beni Barka, a well-preserved fortified granary built by the local Berber population in the 15th century and a UNESCO World Heritage site.
+Midday: Trying local cuisine at Pizzaria La Rosa, a popular restaurant known for its delicious Tunisian dishes.
+Afternoon: Enjoying scenic views at Jabal Zammur, a majestic mountain peak with breathtaking views and challenging hiking trails for outdoor enthusiasts.
+Evening: Participating in a guided tour of the Memoire De La Terre Museum, a well-rated attraction with many reviews, showcasing various exhibits and offering insights into the local history and culture.
+Night: Relaxing with a traditional hammam experience at a local spa or hotel to rejuvenate and unwind after an eventful day.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Bonghnim is a highly-rated restaurant located at 32.9292028, 10.448085 in Tataouine, Tunisia, offering a 4.9-star dining experience with a focus on ojja.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6538,14 +9835,72 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mhrjn lHwt located at WFV6+6WC mhrjn lHwt.
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%87%D8%B1%D8%AC%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x1254b726d399998b:0x5a0e5bb07e6085db!8m2!3d32.9430614!4d10.4622509!16s%2Fg%2F11scstvlgg!19sChIJi5mZ0ya3VBIR24VgfrBbDlo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant de fruits de mer destination in Tataouine that offers a unique culinary experience with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Ouled Soltane, an ancient fortified granary with historical significance and scenic beauty.
+Mid-Morning: Try local cuisine at Café Athina, a highly-rated cafe with a wide variety of food and drinks.
+Midday: Visit the Memoire De La Terre Museum for a glimpse into the region's rich history and culture.
+Afternoon: Enjoy the scenic views and outdoor activities at Jabal Zammur, a majestic mountain peak with challenging hiking trails.
+Evening: Experience traditional Tunisian cuisine at Pizzaria La Rosa, a popular restaurant known for its authentic flavors.
+Night: Relax and unwind at A7la Ingenieriebacterie, a lively discotheque with a vibrant atmosphere and music to get you moving.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6655,14 +10010,72 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Ksar Ouled Soltane located at Ksar Ouled Soltane, Tataouine. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 32.7926647, 10.5187031. For more details, visit their website at https://galaxytours.com/starwars-tunisia-recce-sites/ksar-ouled-soltane/</t>
+          <t>Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Tataouine offers a range of Site historique and Attraction touristique options, particularly appealing to Site historique enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Chenini Tataouine shnny
+Mid-Morning: Visiting Ksar Ouled Soltane
+Midday: Trying local cuisine at Restaurant Margoum
+Afternoon: Relaxing with a swim at Hotel AL RAYAN Tataouine Nouvelle
+Evening: Enjoying scenic views at Jabal Zammur
+Night: Participating in a disco at A7la Ingenieriebacterie</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6760,14 +10173,78 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for something fun to do, check out Ksar Beni Barka located at VCPM+FFR Ksar Beni Barka, Tataouine. 
-This top-rated destination is perfect for Chateau lovers and offers a range of Chateau, Site historique, and Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 32.89223, 10.44298.</t>
+          <t>Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you visit a top-rated destination that offers a variety of Chateau options and has a rating of 4.6?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient fortified granary, **Ksar Beni Barka**.
+**Mid-Morning:**
+* Visit the **Memoire De La Terre Museum** to delve into local history.
+**Midday:**
+* Try traditional Tunisian cuisine at the highly-rated **Aroma Express**.
+**Afternoon:**
+* Experience the picturesque views of **Jabal Zammur** by hiking its challenging trails.
+**Evening:**
+* Immerse yourself in the vibrant Tunisian culture at **La Grande Mosquée**.
+**Night:**
+* Enjoy the lively nightlife at the discotheque **A7la Ingenieriebacterie**.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6865,14 +10342,78 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a spiritual experience, check out La Grande Mosquee located at WFM2+6PQ La Grande Mosquee. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/La+Grande+Mosqu%C3%A9e/data=!4m7!3m6!1s0x1254b7681117065b:0xf2a7a2b30b8a9d37!8m2!3d32.9330782!4d10.4518497!16s%2Fg%2F1hdz8g2b9!19sChIJWwYXEWi3VBIRN52KC7Oip_I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly-rated spiritual destination, perfect for Mosquee lovers?</t>
+          <t>Day Plan:
+Morning:
+- Explore Ksar Ouled Soltane, an ancient fortified granary with historical significance.
+Mid-Morning:
+- Visit La Grande Mosquée, a place of worship with religious significance and architectural beauty.
+Midday:
+- Try local cuisine at Pizzaria La Rosa, known for its delicious Tunisian cuisine.
+Afternoon:
+- Enjoy scenic views at Jabal Zammur, a majestic mountain peak with breathtaking views.
+Evening:
+- Participate in a discotheque event at A7la Ingenieriebacterie, a popular nightlife destination.
+Night:
+- Relax with a stay at Hotel Belmharem, a 5-star hotel with luxurious amenities.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6978,14 +10519,72 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Memoire De La Terre Museum located at WC98+342 Memoire De La Terre Museum, C207, Tataouine. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 32.9176017, 10.4151155. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9moire+De+La+Terre+Mus%C3%A9um/data=!4m7!3m6!1s0x1254b98b6fb13de5:0x9a4aa226d9059189!8m2!3d32.9176432!4d10.415266!16s%2Fg%2F11dxdyd6yj!19sChIJ5T2xb4u5VBIRiZEF2SaiSpo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 234 211.</t>
+          <t>Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you explore a top-rated destination for museum enthusiasts in Tataouine, offering a range of museum and tourist attractions?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Ksar Ouled Soltane
+Mid-Morning: Trying local cuisine at the highly-rated Pizzaria La Rosa
+Midday: Visiting the Dar essadeg lodge, known for its group accommodations and high ratings
+Afternoon: Enjoying outdoor activities like hiking at Jabal Zammur
+Evening: Participating in a lively nightlife experience at A7la Ingenieriebacterie discotheque
+Night: Relaxing with a stay at the comfortable Tataouineranch guesthouse</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7091,14 +10690,80 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Chenini Tataouine shnny located at Chenini Tataouine shnny, CHENINI 3274. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from, including Attraction touristique, Circuit de randonnee, Site historique. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 32.9144479, 10.2795848. For more details, visit their website at https://www.facebook.com/yassinbouchriha%3Fmibextid%3Dvk8aRt.</t>
+          <t>Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where in Tataouine is a top-rated destination for Attraction touristique lovers?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Ksar Ouled Soltane, a fortified granary that was featured in the filming of Star Wars.
+Mid-Morning:
+- Visit the Memoire De La Terre Museum to learn about the history and culture of Tataouine.
+- Admire the architectural beauty of La Grande Mosquée, a place of worship in Tataouine.
+Midday:
+- Enjoy a delicious lunch at Restaurant Margoum, which offers a delightful dining experience with authentic Tunisian cuisine.
+Afternoon:
+- Take a guided tour of Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Evening:
+- Relax with a traditional Hammam experience at a local spa or hotel.
+- Experience the vibrant nightlife of Tataouine at A7la Ingenieriebacterie, a highly-rated discotheque known for its lively atmosphere.
+Night:
+- Engage in stargazing at the Jabal Zammur mountain peak, which offers breathtaking views and challenging hiking trails.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7208,12 +10873,72 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you visit Tataouine and seek an alluring historical adventure, explore Ksar Ouled Soltane, a fortified granary constructed in the 15th century. Nestled at Ksar Ouled Soltane in Tataouine, this top-rated destination invites history buffs and architecture enthusiasts alike. With an impressive rating of 4.7, it's a must-see attraction, open daily from 9 AM to 5 PM. Coordinates for easy navigation: 32.7926647 latitude and 10.5187031 longitude.</t>
+          <t>**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find Ksar Ouled Soltane, a fortified granary from the 15th century, that offers a captivating historical experience in Tataouine?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane, a historical landmark offering a blend of history and picturesque beauty.
+Mid-Morning: Trying local cuisine at Restaurant Margoum, known for its authentic Tunisian flavors and positive reviews.
+Midday: Visiting La Grande Mosquée, a prominent religious landmark with serene ambiance and beautiful architecture.
+Afternoon: Enjoying a guided tour of Chenini Tataouine shnny, a captivating troglodyte village offering an immersive experience of historical sites and stunning landscapes.
+Evening: Participating in a lively atmosphere at A7la Ingenieriebacterie, a highly-rated discotheque popular among locals and tourists.
+Night: Relaxing with a cozy ambiance at Pizza torino, a pizzeria with a 5-star rating, offering a wide variety of pizzas and a welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7311,12 +11036,72 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Ksar Beni Barka located at VCPM+FFR Ksar Beni Barka. This top-rated destination is perfect for Chateau lovers and offers a range of categories to choose from, including Chateau, Site historique, and Attraction touristique. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 32.89223, 10.44298. For more details, visit their website at https://www.google.com/maps/place/Ksar+Beni+Barka/data=!4m7!3m6!1s0x1254ba73821750f3:0xf17bf3004eb9c0f2!8m2!3d32.8862418!4d10.4336397!16s%2Fg%2F1229cm5q!19sChIJ81AXgnO6VBIR8sC5TgDze_E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Chateau and historical site with a rating of 4.6 in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Ksar Ouled Soltane** and immerse yourself in the ancient architecture and cinematic charm.
+Mid-Morning: Embark on a guided tour of the **Memoire De La Terre Museum** to delve into the rich cultural and historical heritage of the region.
+Midday: Indulge in the tantalizing local flavors at **Pizzaria La Rosa**, savoring authentic Tunisian cuisine in a cozy ambiance.
+Afternoon: Explore the intriguing troglodyte village of **Chenini Tataouine shnny**, marveling at its unique landscape and vibrant history.
+Evening: Enjoy a leisurely stroll through the bustling markets of Tataouine, browsing for traditional handicrafts and souvenirs.
+Night: Immerse yourself in the lively atmosphere of **A7la Ingenieriebacterie**, a popular discotheque, and dance the night away with the locals.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7414,12 +11199,72 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>In Tataouine, seek serenity at La Grande Mosquee, a top-rated pilgrimage destination. With a rating of 4.7, this sacred landmark at WFM2+6PQ is a must-visit for those seeking spiritual fulfillment. Its awe-inspiring architecture and serene ambiance will captivate all who enter its hallowed halls. For more information, visit their website or contact the owner, La Grande Mosquee at their provided contact details.</t>
+          <t>La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find the serene pilgrimage destination La Grande Mosquee, known for its spiritual ambiance and awe-inspiring architecture, located in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Ouled Soltane fortified granary, an iconic landmark with stunning architecture.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's rich history and cultural heritage.
+Midday: Enjoy a traditional Tunisian lunch at Pizzaria La Rosa, known for its authentic flavors and cozy atmosphere.
+Afternoon: Embark on a guided tour of the Tataouine bus station, a bustling transportation hub offering insights into local life.
+Evening: Take a leisurely stroll through the Chenini Tataouine shnny troglodyte village, admiring its ancient mosque and the breathtaking mountain and desert scenery.
+Night: Immerse yourself in the vibrant atmosphere of A7la Ingenieriebacterie discotheque, a popular nightlife destination known for its lively music and energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7513,13 +11358,72 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Wed El Kamh. This top-rated destination is perfect for Canal lovers and offers a range of Canal to choose from. With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their link at https://www.google.com/maps/place/Wed+El+Kamh/data=!4m7!3m6!1s0x1254b76a597bc929:0x2a60a21cbb178f99!8m2!3d32.9351268!4d10.4563236!16s%2Fg%2F11ckr64kdp!19sChIJKcl7WWq3VBIRmY8XuxyiYCo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a popular destination offering a variety of Canal options with a high rating, perfect for Canal lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar of Ouled Soltane
+Mid-Morning: Visit the Memoire De La Terre Museum to immerse yourself in local culture
+Midday: Try local Tunisian cuisine at the highly-rated Pizzaria La Rosa
+Afternoon: Engage in outdoor activities at the Jabal Zammur mountain peak, known for its breathtaking views and challenging hiking trails
+Evening: Participate in a lively nightlife experience at the A7la Ingenieriebacterie discotheque
+Night: Unwind and relax with a traditional Hammam experience at a local spa</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7617,15 +11521,78 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a reliable painter, look no further than CASAPAINT at XF34+8XG P19. 
-This top-rated painter is perfect for any painting needs you may have. 
-With a rating of 5.0, it's a must-visit spot for anyone looking for a quality painter. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit the link provided.</t>
+          <t>CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find CASAPAINT, a highly rated painter known for their exceptional quality and reliability?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical site of Ksar Ouled Soltane, a well-preserved fortified granary that offers a glimpse into the region's past.
+**Mid-Morning:**
+- Try local cuisine at Pizzaria La Rosa, known for its authentic Tunisian flavors.
+**Midday:**
+- Visit the Grand Mosque, an architectural marvel and a peaceful sanctuary for spiritual reflection.
+**Afternoon:**
+- Enjoy a guided tour of Memoire De La Terre Museum, showcasing the rich history and culture of Tataouine.
+**Evening:**
+- Engage in outdoor activities at Jabal Zammur, hiking amidst breathtaking views and challenging trails.
+**Night:**
+- Relax at Milano Pizza, a cozy pizzeria with high customer ratings and delicious pizzas.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7719,12 +11686,72 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for an exciting outdoor adventure, head to Jabal Zammur, a breathtaking mountain peak located at the address Jabal Zammur. This top-rated destination is a haven for mountain lovers, offering an unforgettable experience with a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Jabal+Zammur/data=!4m7!3m6!1s0x1254b73b4bd0e0d3:0xe715da7c14dc7c4e!8m2!3d32.9236111!4d10.4730556!16s%2Fg%2F11h08cg3v!19sChIJ0-DQSzu3VBIRTnzcFHzaFec?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>In Tataouine, what mountain peak is recommended for outdoor enthusiasts and boasts a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary of **Ksar Ouled Soltane**, a UNESCO World Heritage site.
+Mid-Morning: Visit the **Memoire De La Terre Museum** to learn about the history and culture of Tataouine.
+Midday: Try local cuisine at **Pizzaria Soltane**, a highly-rated restaurant known for its delicious Tunisian dishes.
+Afternoon: Enjoy scenic views and challenging hiking trails at **Jabal Zammur**, a majestic mountain peak.
+Evening: Relax with a traditional hammam experience at **Auberge Alferdaous**, a renowned hostel with a 4.3 rating.
+Night: Experience the lively atmosphere and dance the night away at **A7la Ingenieriebacterie**, a popular discotheque.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+At the coordinates (32.92988, 10.4490705), in the city of Tataouine, Tunisia, there is a highly rated cafe called mqh~ lbryd Cafe PTT. Although details are limited, it offers a 5-star experience and is open to anyone looking for a pleasant cafe experience.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7822,12 +11849,72 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out A7la Ingenierie bacterie located at W97X+35P A7la Ingenierie bacterie, Best Ingenieur fik ya, Tataouine. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 22:00-04:00, but closed on lundi, mardi, mercredi, jeudi, vendredi. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/A7la+Ing%C3%A9nierie+bact%C3%A9rie/data=!4m7!3m6!1s0x1254bb004d435557:0x3276b5bd9420caa4!8m2!3d32.9127144!4d10.3979517!16s%2Fg%2F11vrwt2_k1!19sChIJV1VDTQC7VBIRpMoglL21djI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>What is the top-rated discotheque in Tataouine, known for its perfect ambiance and located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore Tataouine's historical site, Ksar Beni Barka.
+Mid-Morning: Visit Memoire De La Terre Museum to delve into the region's rich history.
+Midday: Treat yourself to traditional Tunisian flavors at Pizzaria La Rosa.
+Afternoon: Embark on a hike up Jabal Zammur for breathtaking views and outdoor adventure.
+Evening: Head to the well-rated Prestige restaurant for an authentic Tunisian dining experience.
+Night: Immerse yourself in the lively atmosphere and traditional music at A7la Ingenieriebacterie discotheque.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7933,14 +12020,72 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a delicious meal, check out Tej Royal located at XF3C+43R Tej Royal, Tataouine. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:30, but closed on []. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 75 845 420.</t>
+          <t>Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a range of culinary options located in Tataouine?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient fortified Ksar Ouled Soltane
+Mid-Morning: Visit the Memoire De La Terre Museum to learn about the local history and culture
+Midday: Try local cuisine at Pizzaria La Rosa, known for its authentic Tunisian flavors
+Afternoon: Enjoy a scenic hike to the majestic Jabal Zammur, offering breathtaking views
+Evening: Participate in a lively discotheque experience at A7la Ingenieriebacterie
+Night: Relax with a refreshing drink at Cafe Alhambra and soak up the cozy atmosphere</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Carina coffee is a cafe located in route de tataouine, Medenine 4100. They offer a wide variety of coffee and other beverages, as well as a selection of pastries and sandwiches. The cafe is open from 7am to 11:30pm every day and is located at coordinates (33.2333991, 10.4543042).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8046,12 +12191,73 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated restaurant, check out Domino located at Avenue habib bourguiba. This popular destination is perfect for restaurant lovers and offers a range of restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:29-14:30, 17:00-23:00, but closed on []. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website or call them at 22 878 553.</t>
+          <t>Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Looking to dine in a highly-rated restaurant in Tataouine? Where can you find Domino restaurant with GPS coordinates of 32.944309666102, 10.453309339046?</t>
+          <t>Day Plan:
+Morning: Exploring the captivating Chenini Tataouine shnny, a historical troglodyte village nestled amidst stunning mountains and desert landscapes.
+Mid-Morning: Immerse yourself in local culture by trying authentic Tunisian cuisine at the esteemed Pizzaria La Rosa.
+Midday: Visit the majestic Ksar Ouled Soltane, an ancient fortified granary that offers a unique blend of historical significance and scenic beauty.
+Afternoon: Engage in outdoor activities at the serene Wed El Kamh canal, known for its picturesque views and leisurely atmosphere.
+Evening: Enjoy a memorable dinner at the highly-rated FoodStreet 93, renowned for its delectable cuisine and lively ambiance.
+Night: Experience the vibrant nightlife scene at A7la Ingenieriebacterie discotheque, a popular destination known for its energetic atmosphere and renowned DJs.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8153,14 +12359,72 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>In tataouine, Bonghnim located at WCHX+M6P Bonghnim, is a top-rated Restaurant with a 4.9 rating. It offers a range of Restaurant categories to choose from. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their listing on Google Maps at https://www.google.com/maps/place/Bonghnim/data=!4m7!3m6!1s0x1254b715086daa79:0x5ffe9dd499be2b14!8m2!3d32.9292028!4d10.448085!16s%2Fg%2F11qqyjjgm9!19sChIJeaptCBW3VBIRFCu-mdSd_l8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 850 726.</t>
+          <t>Bonghnim is a highly-rated restaurant located at 32.9292028, 10.448085 in Tataouine, Tunisia, offering a 4.9-star dining experience with a focus on ojja.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find Bonghnim, a highly rated restaurant with a 4.9 rating and a diverse menu, accessible via GPS coordinates or a Google Maps listing?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Chenini Tataouine shnny, with its captivating troglodyte village and stunning mountain and desert views.
+Mid-Morning: Visit the Memoire De La Terre Museum for a cultural immersion into the region's history and heritage.
+Midday: Indulge in authentic Tunisian cuisine at Pizzaria La Rosa, known for its delicious flavors and cozy ambiance.
+Afternoon: Experience the grandeur of Ksar Beni Barka, a preserved fortified granary with historical significance.
+Evening: Enjoy the vibrant nightlife atmosphere at A7la Ingenieriebacterie, a popular discotheque known for its lively ambiance.
+Night: Relax at your hotel's spa or enjoy a tranquil walk along the scenic Tataouineranch.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8258,13 +12522,72 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great dining experience, pizzaria la rosa is a top-rated destination that serves Restaurant tunisien cuisine. 
-This must-visit spot with a rating of 4.3 offers a memorable dining experience. It's located in XF28+FF3 pizzaria la rosa, Tataouine and is open during these hours: Not provided. To get to pizzaria la rosa, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their website at https://www.google.com/maps/place/pizzaria+la+rosa/data=!4m7!3m6!1s0x1254b78140a569c7:0xbe6b15fef8576f98!8m2!3d32.9511495!4d10.4661646!16s%2Fg%2F11h7_vc4df!19sChIJx2mlQIG3VBIRmG9X-P4Va74?authuser=0&amp;hl=fr&amp;rclk=1 or call them at Not provided.</t>
+          <t>Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>If you're visiting Tataouine and craving a memorable dining experience featuring Restaurant tunisien cuisine, where can you find the highly-rated pizzaria la rosa?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Ouled Soltane granary to immerse yourself in local history and culture.
+Mid-Morning: Visit the artisanal CASAPAINT to witness their exceptional building painting services and support local businesses.
+Midday: Delight your taste buds with authentic Tunisian cuisine at the highly-rated Pizzaria La Rosa.
+Afternoon: Embark on a guided tour of the fascinating Memoire De La Terre Museum to delve into the region's rich heritage.
+Evening: Head to Chenini Tataouine shnny to witness the captivating troglodyte village and immerse yourself in its ancient charm.
+Night: Immerse yourself in the vibrant atmosphere of A7la Ingenieriebacterie discotheque for an unforgettable nightlife experience.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8362,12 +12685,78 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Pizzeria, check out dr lmlfwf Dar el malfouf located at 44 Av. habib bourguiba. With a rating of 4.4, it's a must-visit spot for Pizzeria lovers. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046</t>
+          <t>Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria with GPS coordinates 32.944309666102, 10.453309339046 in Tataouine?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Ksar Ouled Soltane, a fortified granary with stunning scenic views.
+**Mid-Morning:**
+* Visit the Tataouine bus station, a bustling transportation hub connecting you to various destinations.
+**Midday:**
+* Try local cuisine at Pizzaria La Rosa, known for its delicious Tunisian flavors.
+**Afternoon:**
+* Enjoy the serenity and architectural beauty of La Grande Mosquée, an iconic mosque in Tataouine.
+**Evening:**
+* Participate in a guided tour of Chenini Tataouine shnny, a captivating troglodyte village with a rich history.
+**Night:**
+* Relax with a traditional hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8473,14 +12862,73 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe 3S Tataouine located at WFWH+7CJ Cafe 3S Tataouine, Tataouine. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 95 072 500.</t>
+          <t>Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly-rated Cafe et restaurant de grillades spot with GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary, Ksar Ouled Soltane, to delve into the architectural history of Tataouine.
+Mid-Morning: Visit the pristine Memoire De La Terre Museum to discover the rich cultural heritage of the region through captivating exhibits.
+Midday: Indulge in authentic Tunisian cuisine at the highly-rated Pizzaria La Rosa, savoring the aromatic flavors of traditional dishes.
+Afternoon: Explore the enchanting troglodyte village of Chenini Tataouine shnny, nestled amidst stunning mountain and desert landscapes, offering a glimpse into the region's unique history.
+Evening: Participate in a traditional cooking class at Patisserie Du Sud Kilani Ounissi, where you can learn the art of preparing delectable Tunisian pastries.
+Night: Relax and rejuvenate with a soothing spa treatment at a local hotel, allowing yourself to unwind after a day filled with exploration and cultural immersion.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8586,14 +13034,72 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to grab a bite, check out Patisserie Du Sud Kilani Ounissi located at WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine. 
-This local favorite is perfect for Cafeteria lovers and offers a range of delicious options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on . To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at or call them at 53 407 827.</t>
+          <t>Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafeteria called Patisserie Du Sud Kilani Ounissi in Tataouine known for its delicious food options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary, Ksar Ouled Soltane, featured in the Star Wars films.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into Tataouine's local history and culture.
+Midday: Savor traditional Tunisian cuisine at Pizzeria Restaurant Dar Dhiafa, known for its cozy atmosphere and authentic flavors.
+Afternoon: Discover the breathtaking natural beauty of Jabal Zammur, a majestic mountain with challenging hiking trails and panoramic views.
+Evening: Immerse yourself in the vibrant nightlife at A7la Ingenieriebacterie, a popular discotheque with a lively ambiance.
+Night: Retreat to the charming Hotel Belmharem, a 5-star luxury hotel offering a central location and a range of amenities for a comfortable stay.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8695,12 +13201,72 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Pizzeria Restaurant Dar Dhiafa located at XF86+262 Pizzeria Restaurant Dar Dhiafa, P19, Tataouine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Restaurant+Dar+Dhiafa/data=!4m7!3m6!1s0x1254b772319def77:0xce8e2cd4a9298557!8m2!3d32.9650239!4d10.4605025!16s%2Fg%2F11fp4rv4f9!19sChIJd--dMXK3VBIRV4UpqdQsjs4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 193 022.</t>
+          <t>In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>What is a highly rated Pizzeria Restaurant in Tataouine known for its exceptional Pizzeria offerings with a rating of 4.7?</t>
+          <t>Day Plan:
+Morning: Explore Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Mid-Morning: Visit Ksar Beni Barka, a preserved fortified granary that offers an immersive experience of local history and culture.
+Midday: Try local cuisine at Pizzeria Restaurant Dar Dhiafa, which offers pizzas ranging from classics to unique creations in a cozy and warm setting.
+Afternoon: Enjoy scenic views at Jabal Zammur, a majestic mountain peak with breathtaking views and challenging hiking trails.
+Evening: Participate in the lively atmosphere at A7la Ingenieriebacterie, a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends.
+Night: Relax with a stay at The Hotel AL RAYAN Tataouine Nouvelle, which offers a comfortable stay with a swimming pool and a central location in the heart of the city.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8798,16 +13364,72 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you visit Tataouine, Restaurant Margoum located at WCHX+JH5 Restaurant Margoum is worth a try. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their website at https://www.google.com/maps/place/Restaurant+Margoum/data=!4m7!3m6!1s0x1254b769afd26465:0x99a723ce136bd40e!8m2!3d32.9290219!4d10.448972!16s%2Fg%2F11fwx16pz7!19sChIJZWTSr2m3VBIRDtRrE84jp5k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Tataouine that is known for its excellent food and is worth a visit, with a rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary, Ksar Ouled Soltane, which was featured in the 'Star Wars' films.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's history and culture.
+Midday: Indulge in authentic Tunisian cuisine at Pizzaria La Rosa, known for its delectable dishes.
+Afternoon: Embark on a guided tour of Chenini Tataouine shnny, a captivating troglodyte village nestled amidst stunning scenery.
+Evening: Experience the lively nightlife at A7la Ingenieriebacterie discotheque, a popular destination for locals and visitors alike.
+Night: Relax and unwind at Dar essadeg, a highly-rated lodge offering comfortable accommodations in the heart of Tataouine.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8909,12 +13531,72 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in tataouine, be sure to visit Milano Pizza on WFF4+HV3 Unnamed Road. This top-rated Pizzeria has a 5.0 rating and is a favorite among locals. It offers a range of dishes to choose from, so you're sure to find something you'll love. Milano Pizza's hours vary, so it's always best to call ahead or check their website before making a trip. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more information, visit their website or call them at 96 863 604.</t>
+          <t>Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where can you find Milano Pizza, a highly-rated pizzeria with a varied menu and local popularity, in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary of Ksar Ouled Soltane.
+Mid-Morning: Visit the La Grande Mosquée, a renowned religious landmark in the city.
+Midday: Have a delicious Tunisian meal at the highly-rated Pizaria La Rosa.
+Afternoon: Take a guided tour of the Memoire De La Terre Museum to learn about the local history and culture.
+Evening: Immerse yourself in the history and beauty of Chenini Tataouine shnny, a captivating troglodyte village.
+Night: Enjoy the lively atmosphere of A7la Ingenieriebacterie, a popular discotheque open on weekends.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9012,12 +13694,72 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mT`m kbrn located at XF6F+P8H mT`m kbrn, Tataouine. This top-rated destination is perfect for Restaurant lovers. It has a rating of 4.3 and is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%83%D8%A8%D8%B1%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1254b70c674cd7f7:0x63cf153b82e97d00!8m2!3d32.9625499!4d10.4742854!16s%2Fg%2F11tjf74qwr!19sChIJ99dMZwy3VBIRAH3pgjsVz2M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Tataouine that is a perfect spot for those who enjoy dining?</t>
+          <t>Day Plan:
+Morning: Arrive in Tataouine and grab a bite to eat at **Aroma Express**, a highly-rated restaurant offering a wide range of dining options.
+Mid-Morning: Embark on a guided tour of **Ksar Beni Barka**, a preserved fortified granary offering an immersive experience of local history and culture.
+Midday: Savor the authentic flavors of Tunisian cuisine at **Pizzaria La Rosa**, a popular restaurant known for its delicious local dishes.
+Afternoon: Discover the captivating troglodyte village of **Chenini Tataouine shnny**, nestled amidst a stunning mountain and desert landscape.
+Evening: Indulge in a delightful dining experience at **IL Maestro pizza**, a highly-rated pizzeria open 24 hours a day.
+Night: Head over to **A7la Ingenieriebacterie**, a lively discotheque open on weekends, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9115,12 +13857,73 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to eat, be sure to check out L'artisto located at WCHX+X22 L'artisto, P19, Tataouine. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.2, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/L%27artisto/data=!4m7!3m6!1s0x1254b70114d2bedd:0x966e58e8aff2aa00!8m2!3d32.9298833!4d10.4475194!16s%2Fg%2F11fsk9y6ff!19sChIJ3b7SFAG3VBIRAKryr-hYbpY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where is the highly-rated restaurant L'Artista located, and what distinguishes it from others?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Ksar Ouled Soltane, a preserved fortified granary that offers a glimpse into the region's rich heritage.
+Mid-Morning: Indulge in the local cuisine at Pizzaria La Rosa, known for its authentic Tunisian flavors and cozy ambiance.
+Midday: Visit the Memoire De La Terre Museum to learn about the town's history and culture.
+Afternoon: Engage in outdoor activities at Jabal Zammur, a majestic mountain peak with breathtaking views and challenging hiking trails.
+Evening: Experience the vibrant nightlife at A7la Ingenieriebacterie, a highly-rated discotheque known for its lively atmosphere and large crowd.
+Night: Relax with a refreshing drink at Cafe Marrakech, a cozy cafe offering a wide range of beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9226,12 +14029,78 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Pizzeria, check out IL Maestro pizza located at WFR6+Q9H IL Maestro pizza, Tataouine. With a rating of 5.0 and 5 reviews, it's a must-visit spot for authentic Italian pizzas. It's open 24 hours a day, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, call them at 96 820 225.</t>
+          <t>IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you indulge in highly-rated Italian pizzas, accessible at any hour of the day?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historical site of Ksar Ouled Soltane.
+**Mid-Morning:**
+* Try local cuisine at Pizzaria La Rosa.
+**Midday:**
+* Visit the Memoire De La Terre Museum to learn about the region's history.
+**Afternoon:**
+* Enjoy a hike in Jabal Zammur for breathtaking views of the surrounding landscape.
+**Evening:**
+* Relax with a traditional tea at Al Maqam Tea Room.
+**Night:**
+* Experience the lively nightlife at A7la Ingenieriebacterie Discotheque.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9337,12 +14206,79 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you happen to be in tataouine and looking for a great dining experience, head over to FoodStreet 93 located at WC5F+RX5 FoodStreet 93, Tataouine. This top-rated spot is particularly great for those who enjoy Restaurant cuisine. With a fantastic rating of 5.0, it's definitely a must-visit. Their hours of operation are 10:00-02:00 during the week, but they are closed on unspecified days. For further details, you can visit their website or give them a call at 26 399 255.</t>
+          <t>FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Question: If you're in Tataouine seeking an exceptional dining experience featuring Restaurant cuisine and a high rating of 5.0, what top-rated restaurant should you visit and where is it located?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient fortified granary, **Ksar Ouled Soltane**, a popular tourist attraction featured in the 'Star Wars' films.
+**Mid-Morning:**
+- Visit the **La Grande Mosquée**, a renowned mosque located in the city, offering a serene atmosphere for worship and spiritual connection.
+**Midday:**
+- Try local cuisine at **Pizzaria La Rosa**, known for its delicious Tunisian cuisine and cozy ambiance.
+**Afternoon:**
+- Relax at the **Tataouine bus** station, a major stop for both domestic and international travelers, with various amenities.
+- Take a guided tour of the **Memoire De La Terre Museum**, a well-rated attraction featuring a captivating troglodyte village.
+**Evening:**
+- Enjoy scenic views at **Jabal Zammur**, a majestic mountain peak located in the Tataouine area.
+**Night:**
+- Engage in outdoor activities like stargazing or camping at the **Tataouine Station**, a transportation hub for bus travel.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9448,12 +14384,72 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great pizza, head to Pizza torino located at WFM2+494 Pizza torino, P19, Tataouine. This top-rated Pizzeria is perfect for pizza lovers and offers a range of pizzas to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on . To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 50 443 442.</t>
+          <t>Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria in Tataouine that offers a wide variety of pizzas?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Beni Barka, a preserved fortified granary that offers a glimpse into the region's history and culture.
+Mid-Morning: Take a scenic drive to Chenini Tataouine shnny, a historical site featuring a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Midday: Try local cuisine at Dar essadeg, a highly-rated 4.9-star lodge that offers group accommodations and serves delicious food.
+Afternoon: Relax and enjoy scenic views at Tataouineranch, a 5-star guest house with a swimming pool, garden, and terrace located near the city center.
+Evening: Experience the lively atmosphere at A7la Ingenieriebacterie, a popular discotheque open from 10 p.m. to 4 a.m. on weekends.
+Night: Dine at Pizzaria La Rosa, a well-rated restaurant known for its delicious Tunisian cuisine and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9547,14 +14543,72 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out strH@ lnj` located at XF7F+FW strH@ lnj`, Tataouine. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated restaurant located in Tataouine with GPS coordinates of 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient fortified granary, Ksar Ouled Soltane
+Mid-Morning: Enjoying a satisfying dining experience with local cuisine at Pizzaria La Rosa
+Midday: Visiting the UNESCO World Heritage site, Ksar Beni Barka
+Afternoon: Relaxing with a scenic view at Jabal Zammur, a majestic mountain peak
+Evening: Participating in a lively nightlife experience at A7la Ingenieriebacterie discotheque
+Night: Experiencing the rich history and culture at Chenini Tataouine shnny, a fascinating troglodyte village</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9656,12 +14710,73 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a top-notch dining experience, head to Prestige, conveniently located on Rue Ahmed Tili in the WCGR+69W area. As a highly-rated restaurant, it's a haven for food enthusiasts, serving delectable cuisines that cater to discerning palates. Prestige is open from 6 AM to 11 PM on weekdays, offering an exceptional gastronomic journey. For further details or reservations, you can call them at 95 833 353.</t>
+          <t>Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly-rated restaurant with a convenient location, serving exquisite cuisines and offering flexible hours?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Beni Barka, a preserved fortified granary that offers an immersive experience of local history and culture.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's rich history and cultural heritage.
+Midday: Try the local cuisine at Bonghnim, a highly-rated restaurant offering a 4.9-star dining experience with a focus on ojja.
+Afternoon: Engage in outdoor activities like hiking the challenging trails of Jabal Zammur, a majestic mountain peak offering breathtaking views.
+Evening: Experience the vibrant nightlife at A7la Ingenieriebacterie, a highly-rated discotheque known for its lively atmosphere.
+Night: Relax with a soothing experience at a traditional Hammam, offering a rejuvenating and authentic cultural immersion.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Bonghnim is a highly-rated restaurant located at 32.9292028, 10.448085 in Tataouine, Tunisia, offering a 4.9-star dining experience with a focus on ojja.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9759,12 +14874,72 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Pizzeria Lela Meriem located at WCHX+HFF Pizzeria Lela Meriem, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Lela+Meriem/data=!4m7!3m6!1s0x1254b7958c738b8d:0xf00c21e811d83efa!8m2!3d32.9290543!4d10.4486404!16s%2Fg%2F11v5tm64rg!19sChIJjYtzjJW3VBIR-j7YEeghDPA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 6270.</t>
+          <t>Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>What top-rated pizzeria in Tataouine is known for its exceptional offerings, boasting a 5.0 rating and inviting pizzeria enthusiasts to indulge in a memorable culinary experience?</t>
+          <t>Day Plan:
+Morning: Exploring Chenini Tataouine shnny
+Mid-Morning: Trying local cuisine at Pizzaria La Rosa
+Midday: Visiting Ksar Beni Barka
+Afternoon: Taking a guided tour of Ksar Ouled Soltane
+Evening: Enjoying scenic views at Jabal Zammur
+Night: Relaxing at Auberge Alferdaous</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9858,12 +15033,72 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Restaurant experience, check out aroma express located at WCHX+J9R aroma express, Av. habib bourguiba, Tataouine. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/aroma+express/data=!4m7!3m6!1s0x1254b7bade5a8dd5:0x2a5b022c4686c03b!8m2!3d32.9291128!4d10.4483865!16s%2Fg%2F11kvbz1dcc!19sChIJ1Y1a3rq3VBIRO8CGRiwCWyo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant experience with a rating of 5.0 in Tataouine?</t>
+          <t>Day Plan:
+Morning: Explore the fascinating Ksar Ouled Soltane, an ancient fortified granary featured in the 'Star Wars' films.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's rich history and culture.
+Midday: Indulge in an authentic Tunisian lunch at Prestige, a well-rated restaurant offering a casual dining experience with traditional dishes.
+Afternoon: Enjoy a leisurely walk through Chenini Tataouine shnny, a captivating historical site showcasing a troglodyte village amidst stunning landscapes.
+Evening: Experience the lively atmosphere of A7la Ingenieriebacterie, a popular discotheque known for its energetic ambiance and a large crowd on weekends.
+Night: Relish a delicious dinner at Pizzaria La Rosa, renowned for its delectable Tunisian cuisine and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Vague is a café located in Tataouine, Tunisia, at coordinates (32.92988, 10.4490705). It offers a cozy atmosphere and a variety of beverages and snacks. Open from 5 AM to midnight, the café is a popular spot for locals and tourists alike.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9957,12 +15192,72 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Ciao Ciao located at WFP2+PMH Ciao Ciao, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ciao+Ciao/data=!4m7!3m6!1s0x1254b7c479d550d5:0x8ef35ac71dc0995b!8m2!3d32.9367995!4d10.451769!16s%2Fg%2F11vby7cvsl!19sChIJ1VDVecS3VBIRW5nAHcda844?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a highly-rated Restauration rapide destination with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Ksar Ouled Soltane, a well-preserved fortified granary built in the 15th century.
+Mid-Morning: Visit the Memoire De La Terre Museum to gain insights into the cultural heritage and history of Tataouine.
+Midday: Savor authentic Tunisian cuisine at Pizzaria La Rosa, a popular restaurant known for its delicious traditional dishes.
+Afternoon: Engage in outdoor activities at Jabal Zammur, a majestic mountain peak offering breathtaking views and challenging hiking trails.
+Evening: Experience the lively atmosphere of A7la Ingenieriebacterie, a highly-rated discotheque open on weekends.
+Night: Relax and rejuvenate at a traditional spa or hotel, enjoying a soothing massage or other pampering treatments.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10056,12 +15351,78 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Restaurant universitaire located at WFXF+FQC Restaurant universitaire, Tataouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 48.2685194, 4.0701442.</t>
+          <t>The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you experience highly rated Restaurant dining options with precise GPS coordinates for easy navigation?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Ksar Ouled Soltane, a fortified granary with stunning architecture.
+**Mid-Morning:**
+- Visit the Memoire De La Terre Museum to delve into the region's rich history and culture.
+**Midday:**
+- Treat yourself to a delicious lunch at Pizzaria La Rosa, known for its authentic Tunisian cuisine.
+**Afternoon:**
+- Take a refreshing swim and enjoy the scenic views at Wed El Kamh, a prominent canal on the outskirts of the city.
+**Evening:**
+- Embark on a guided tour of the La Grande Mosquée, an iconic landmark in Tataouine, offering tranquility and spiritual connection.
+**Night:**
+- Immerse yourself in the lively atmosphere of A7la Ingenieriebacterie, a popular discotheque renowned for its energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Tataouine, Cafe hay riadhi offers a cozy atmosphere for coffee lovers. With a rating of 4.0, this 24/7 cafe is a popular spot for locals and visitors alike. Immerse yourself in the cafe's inviting ambiance and enjoy a refreshing cup of coffee while immersing yourself in the local culture.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.
+Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10159,13 +15520,72 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Pizzaria Soltane located at WCJX+9JC Pizzaria Soltane, P19, Tataouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours:  
-For more details, visit their website at  or call them at .</t>
+          <t>Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant in Tataouine that offers a variety of Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the historical wonders of Ksar Beni Barka, a UNESCO World Heritage site that offers a glimpse into the region's rich cultural heritage.
+Mid-Morning: Immerse yourself in the local flavors by visiting Pizzaria La Rosa for a taste of authentic Tunisian cuisine.
+Midday: Ascend the impressive Jabal Zammur for panoramic views of the surrounding landscape.
+Afternoon: Discover the captivating troglodyte village of Chenini Tataouine shnny, a UNESCO World Heritage site where you can explore ancient mosques and labyrinthine streets.
+Evening: Experience traditional Tunisian music and dance by participating in a lively performance at A7la Ingenieriebacterie, a popular discotheque in Tataouine.
+Night: Enjoy a relaxing evening at Café Alhambra, a cozy and inviting teahouse where you can savor delicious teas and soak up the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10259,12 +15679,72 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mshw~ bn `mr located at XF5F+R2 mshw~ bn `mr, Tataouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D9%88%D9%89+%D8%A8%D9%86+%D8%B9%D8%A7%D9%85%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x1254b7562a643033:0x8c7cf918db1d5378!8m2!3d32.9595894!4d10.472615!16s%2Fg%2F11r_nc6y6n!19sChIJMzBkKla3VBIReFMd2xj5fIw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination offering a range of dining options in Tataouine, known for its Restaurant ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the preserved fortified granary of Ksar Beni Barka, immersing yourself in the region's rich heritage.
+Mid-Morning: Head to Patisserie Du Sud Kilani Ounissi, a culinary gem renowned for its delectable pastries and sweet treats.
+Midday: Visit the historical site of Chenini Tataouine shnny, capturing the captivating beauty of a troglodyte village amidst a stunning landscape.
+Afternoon: Visit the scenic spot of Jabal Zammur, a majestic mountain peak offering breathtaking views and challenging hiking trails.
+Evening: Experience local cuisine at Pizzaria Soltane, a highly rated restaurant serving delicious Tunisian dishes.
+Night: Indulge in a relaxing stay at Dar essadeg, a 4.9-rated lodge offering comfortable accommodations and proximity to Tataouine's attractions.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10362,14 +15842,73 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mT`m lmHT@ located at WFG2+FGG mT`m lmHT@, Tataouine. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, call them at 56 555 600.</t>
+          <t>This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination for Restauration rapide lovers in Tataouine, known for its unique atmosphere and delicious food options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Ouled Soltane, a fortified granary that dates back to the 15th century.
+Mid-Morning: Visit the Memoire De La Terre Museum to learn about the history and culture of Tataouine.
+Midday: Try local cuisine at Pizzeria Restaurant Dar Dhiafa, known for its cozy ambiance and authentic Tunisian flavors.
+Afternoon: Enjoy scenic views of the Wed El Kamh canal, a prominent waterway that offers picturesque surroundings.
+Evening: Participate in a guided tour of Chenini Tataouine shnny, a captivating troglodyte village nestled amidst a stunning mountain and desert landscape.
+Night: Relax and unwind at Cafe Marrakech, a cozy spot with a wide range of beverages and snacks, and rave reviews from locals and visitors alike.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10467,14 +16006,78 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out bytzry@ lbrk@-Pizzeria Al Baraka located at WFW7+8JH bytzry@ lbrk@-Pizzeria Al Baraka, Tataouine. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria called Pizzeria Al Baraka while in Tataouine?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Ksar Ouled Soltane, a fortified granary built by the Berbers in the 15th century.
+**Mid-Morning:**
+* Visit Memoire De La Terre Museum to learn about the history and culture of Tataouine.
+**Midday:**
+* Try local cuisine at "mhrjn lHwt," a highly-rated seafood restaurant.
+**Afternoon:**
+* Engage in outdoor activities like hiking at Jabal Zammur, a majestic mountain peak with stunning views.
+**Evening:**
+* Enjoy scenic views at La Grande Mosquée, a prominent religious landmark.
+**Night:**
+* Shop at Road transport station, a transportation hub that offers a range of goods.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10572,14 +16175,72 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something related to Service de transport, check out Louaj Mednine Tataouine Station located at 8FVP+6X8 Louaj Mednine Tataouine Station, Medenine. 
-This destination is perfect for Service de transport lovers and is rated 3.0. 
-To get there, use these GPS coordinates: 33.145723231212, 10.893721048872. For more details, visit their website at https://www.google.com/maps/place/Louaj+Mednine+Tataouine+Station/data=!4m7!3m6!1s0x1254d62c2e621bf9:0xf0bff1395789161!8m2!3d33.3430404!4d10.4874393!16s%2Fg%2F11c2qvw_xx!19sChIJ-RtiLizWVBIRYZF4lRP_Cw8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Louaj Mednine Tataouine Station, located in Medenine, Tunisia (GPS coordinates: 33.145723231212, 10.893721048872), provides transportation services to the surrounding areas. With a rating of 3.0 based on 7 reviews, this place offers a convenient solution for travelers seeking to explore the region.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where in Tataouine can you find a 3.0-rated Service de transport destination with the GPS coordinates 33.145723231212, 10.893721048872?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Beni Barka, a preserved fortified granary offering an immersive experience of local history and culture.
+Mid-Morning: Visit the Memoire De La Terre Museum to learn about the rich history and culture of Tataouine through its collection of artifacts and exhibits.
+Midday: Try local cuisine at the highly-rated "mhrjn lHwt" seafood restaurant, known for its delicious seafood dishes.
+Afternoon: Enjoy scenic views and engage in outdoor activities at Jabal Zammur, a majestic mountain peak with breathtaking views and challenging hiking trails.
+Evening: Participate in a guided tour of the La Grande Mosquée, a place of worship known for its religious significance and architectural beauty.
+Night: Relax and unwind at the A7la Ingenieriebacterie discotheque, a popular nightlife destination known for its lively atmosphere and large crowd.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.
+Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10673,12 +16334,72 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in tataouine and in need of public transportation, check out Station de Bus located at WCHW+PRX Station de Bus, Tataouine. This service has a rating of 3.1 and is a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where is the highly-rated public transportation station in Tataouine known for its convenience?</t>
+          <t>Day Plan:
+Morning: Explore Chenini Tataouine for its captivating troglodyte village and rich history.
+Mid-Morning: Fill your stomach with delicious Tunisian cuisine at the charming Pizzaria La Rosa.
+Midday: Immerse yourself in the serene atmosphere of the renowned La Grande Mosquée for spiritual connection.
+Afternoon: Head to the Memoire De La Terre Museum for an intriguing journey through Tataouine's past and culture.
+Evening: Indulge in a delectable dinner at the highly-rated Pizzaria Soltane, known for its authentic Tunisian flavors.
+Night: Dance the night away at the lively discotheque A7la Ingenieriebacterie, where the atmosphere will keep you moving.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10776,13 +16497,73 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Road transport station located at Road transport station, P19, Tataouine. 
-This top-rated destination  is a must-visit spot with a rating of 4.0 With a rating of . To get there, use these GPS coordinates: 32.92988, 10.4490705.  .</t>
+          <t>Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>What's the top-rated destination with a rating of 4.0 in Tataouine, located at Road transport station and accessible via GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ksar Ouled Soltane, a fortified granary with scenic views.
+Mid-Morning: Visit the Memoire De La Terre Museum to delve into the region's history and culture.
+Midday: Try local cuisine at Tej Royal, a highly-rated restaurant serving authentic Tunisian dishes.
+Afternoon: Enjoy scenic views at Jabal Zammur, a mountain peak offering challenging hiking trails and breathtaking vistas.
+Evening: Experience the local nightlife at A7la Ingenieriebacterie, a lively discotheque with a large crowd.
+Night: Relax and unwind at Dar essadeg, a highly-rated lodge with a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Carina coffee is a cafe located in route de tataouine, Medenine 4100. They offer a wide variety of coffee and other beverages, as well as a selection of pastries and sandwiches. The cafe is open from 7am to 11:30pm every day and is located at coordinates (33.2333991, 10.4543042).
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.
+**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10888,12 +16669,72 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for reliable transportation, check out Station de transport tataouine (louage) at Road transport station, P19. This top-rated destination is perfect for those needing transportation services and offers a range of options to choose from. With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, so you can get there whenever it's convenient for you. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 75 862 874.</t>
+          <t>Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>If you're seeking trustworthy transportation options in Tataouine known for their top-rated services, where should you head by using GPS coordinates 32.92988, 10.4490705?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortified granary of Ksar Ouled Soltane, a UNESCO World Heritage site and a filming location for Star Wars.
+Mid-Morning: Visit the La Grande Mosquée, a beautiful and serene place of worship with highly rated reviews.
+Midday: Try local Tunisian cuisine at Pizzaria La Rosa, a popular restaurant known for its delicious food.
+Afternoon: Take a guided tour of the Memoire De La Terre Museum, which offers insights into the region's history and culture.
+Evening: Enjoy scenic views from Jabal Zammur, a majestic mountain peak with challenging hiking trails.
+Night: Participate in a lively discotheque experience at A7la Ingenieriebacterie, open from 10 p.m. to 4 a.m. on weekends.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10999,12 +16840,78 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to fill up your gas tank, head to Station de transport terrestre Tataouine. Located at Station de transport terrestre Tataouine, Road transport station, P19, Tataouine, this top-rated destination is perfect for gas station lovers and offers a range of services to choose from. With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, so you can fill up your tank anytime. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Station+de+transport+terrestre+Tataouine/data=!4m7!3m6!1s0x1254b7e817043ac7:0x37901109844361f6!8m2!3d32.9480797!4d10.4567169!16s%2Fg%2F11fk55_gqf!19sChIJxzoEF-i3VBIR9mFDhAkRkDc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 862 874.</t>
+          <t>The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.4) gas station with convenient 24-hour service in Tataouine?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient fortified granary of **Ksar Ouled Soltane**, a blend of historical significance and scenic beauty.
+**Mid-Morning:**
+- Indulge in the tantalizing flavors of traditional Tunisian cuisine at **Pizzaria La Rosa**, renowned for its delicious and authentic dishes.
+**Midday:**
+- Embark on a guided tour of **Memoire De La Terre Museum**, showcasing the rich heritage and culture of Tataouine.
+**Afternoon:**
+- Escape the hustle and bustle with a relaxing spa treatment at **Auberge Alferdaous**, a tranquil oasis with a luxurious ambiance.
+**Evening:**
+- Ascend the majestic **Jabal Zammour** for breathtaking panoramic views and an exhilarating hiking experience.
+**Night:**
+- Embrace the lively atmosphere of **A7la Ingenieriebacterie**, a popular discotheque that keeps the dance floor pumping until the wee hours.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.
+Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11102,15 +17009,72 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in tataouine and searching for a reliable transportation service, look no further than Local Louage Station, situated at 1934 02 Mars 1943, Tataouine. 
-This highly-rated destination has a 4.5-star rating and provides a range of transportation services. 
-To plan your visit, note that their hours of operation and closure days are not specified. 
-For precise navigation, utilize the GPS coordinates: (32.92988, 10.4490705).</t>
+          <t>The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated transportation service with a 4.5-star rating in Tataouine, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the captivating troglodyte village of Chenini Tataouine shnny, immersing yourself in its rich history and stunning desert landscapes.
+Mid-Morning: Savory the authentic flavors of Tunisian cuisine at the highly-rated Pizzaria La Rosa, known for its delectable dishes.
+Midday: Visit the well-preserved Ksar Beni Barka, a fortified granary that showcases local history and culture, offering a glimpse into the region's heritage.
+Afternoon: Head to Jabal Zammur, a majestic mountain peak with breathtaking views, for an invigorating hike amidst nature's wonders.
+Evening: Relax with a soothing experience at a local spa or hotel, rejuvenating your body and mind after a day of exploration.
+Night: Immerse yourself in the vibrant atmosphere of Tataouine's nightlife at the popular discotheque A7la Ingenieriebacterie, dancing the night away with locals and fellow travelers.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).
+Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.
+The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11212,12 +17176,73 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and need reliable transportation, consider Express Transport Tataouine. Located on Av. Habib Bourguiba, they offer quality service for all your transport needs. Their rating of 4.0 shows their commitment to customer satisfaction. They operate from 8:00 AM to 6:00 PM, but are closed on Sundays. For precise directions, use the GPS coordinates: 32.9322232, 10.4599845. Contact them via phone at 98 169 181 if you have any inquiries.</t>
+          <t>Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>What is the distinctive transport service located on Av. Habib Bourguiba in Tataouine with a high customer satisfaction rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Ouled Soltane, a fortified granary that played a role in the Star Wars films.
+Mid-Morning: Visit the Tataouine Museum (Musée de Tataouine) to learn about the region's history and culture.
+Midday: Enjoy a traditional Tunisian lunch at Pizzaria La Rosa, known for its delicious pizzas and cozy ambiance.
+Afternoon: Take a guided tour of Chenini, a historic troglodyte village nestled amidst a stunning mountain and desert landscape.
+Evening: Relax and unwind with a traditional hammam experience at a local spa.
+Night: Experience the lively atmosphere and dance the night away at A7la Ingenieriebacterie, a popular discotheque in Tataouine.</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.
+Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.
+Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11311,12 +17336,72 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a reliable transportation provider, Station Bus SRTM a Tataouine is a top-rated destination. Located at WCHW+MRR Station Bus SRTM a Tataouine, Tataouine, this establishment offers a range of services to meet your needs. With a rating of 2.0, it's a trusted choice among locals and visitors alike. To get more information, visit their website at https://www.google.com/maps/place/Station+Bus+SRTM+%C3%A0+Tataouine/data=!4m7!3m6!1s0x1254b75c4ed8f7d7:0x80b56d5f42499711!8m2!3d32.9292327!4d10.4470083!16s%2Fg%2F11c54fjfgt!19sChIJ1_fYTly3VBIREZdJQl9ttYA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bus SRTM a Tataouine is a bus station located in Tataouine, Tunisia. It is owned by Station Bus SRTM a Tataouine (proprietaire) and offers bus transportation services. The station is located at WCHW+MRR Station Bus SRTM a Tataouine, Tataouine and has a rating of 2.0 out of 5 based on 1 review.</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated transportation provider in Tataouine known for its reliable services and convenient location?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Ouled Soltane
+Mid-Morning: Trying local cuisine at Pizzaria La Rosa
+Midday: Relaxing with a massage at Tataouineranch
+Afternoon: Enjoying scenic views at Jabal Zammur
+Evening: Participating in a traditional music event at A7la Ingenieriebacterie
+Night: Exploring the night market in Tataouine</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.
+Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11410,15 +17495,73 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and need transportation, check out Chenini Station located at WCHW+4MF Chenini Station, 02 Mars 1943. 
-This top-rated destination is perfect for all your transportation needs. 
-With a rating of 4.0, it's a must-visit spot. 
-Coordinates: 32.9144479, 10.2795848</t>
+          <t>**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated transportation destination in Tataouine with the coordinates 32.9144479, 10.2795848?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historic Ksar Ouled Soltane, a fortified granary that offers a glimpse into the region's rich history and culture.
+Mid-Morning: Immerse yourself in the local ambiance by visiting the bustling Patisserie Du Sud Kilani Ounissi, where you can indulge in delectable pastries and sweet treats.
+Midday: Savor the authentic flavors of Tunisian cuisine at Pizzaria La Rosa, known for its cozy ambiance and mouthwatering pizzas.
+Afternoon: Stroll through Chenini Tataouine shnny, an enchanting troglodyte village nestled amidst a stunning mountain and desert landscape. Explore its ancient mosque and navigate its labyrinthine streets, soaking in the captivating history.
+Evening: Head to A7la Ingenieriebacterie, a lively discotheque, for an unforgettable night of dancing and entertainment.
+Night: Unwind and relax at your hotel, Auberge Alferdaous, a cozy, family-run hostel known for its friendly staff and comfortable accommodations.</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.
+Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.
+Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.
+Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.
+Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.
+Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11520,15 +17663,72 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Station-service, check out Station tataouine service rapide. 
-This popular destination offers a range of services. 
-With a rating of 5.0, it's a must-visit spot if you need a place like this. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Station+tataouine+service+rapide/data=!4m7!3m6!1s0x1254b7ce772d2fb3:0x978b3a670f918263!8m2!3d32.9474475!4d10.4556547!16s%2Fg%2F11h7_mmvj4!19sChIJsy8td863VBIRY4KRD2c6i5c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 862 108.</t>
+          <t>Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>If you're in Tataouine seeking a highly-rated Station-service, what's the name of the popular spot with a 5.0 rating and easy access via the provided GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Ksar Beni Barka, a preserved fortified granary offering an immersive experience of local history.
+Mid-Morning: Trying local cuisine at the highly-rated "mhrjn lHwt" seafood restaurant, known for its delicious seafood dishes.
+Midday: Visiting the awe-inspiring Ksar Ouled Soltane, a fortified granary featuring multiple stories and surrounded by two courtyards, providing scenic views.
+Afternoon: Enjoying recreational activities like hiking or nature walks at Jabal Zammur, a majestic mountain peak offering breathtaking views and challenging trails.
+Evening: Relaxing with a soothing spa treatment at a local hotel or spa, indulging in a rejuvenating and pampering experience.
+Night: Participating in a lively dance party at A7la Ingenieriebacterie, a popular discotheque known for its vibrant atmosphere and energetic crowd.</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.
+**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.
+Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.
+"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.
+The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.
+Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".
+Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.
+The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.
+"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.
+Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.
+Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.
+La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.
+Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.
+Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.
+Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.
+CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.
+Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.
+Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.
+**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.
+Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.
+Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).
+This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.
+Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.
+Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.
+The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.
+**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
